--- a/results/PNBSF_reform_Andres.xlsx
+++ b/results/PNBSF_reform_Andres.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9136B1C5-99BB-4F2F-99EE-DABF500FF5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="scenarios">[1]labels!$F$2:$F$5</definedName>
     <definedName name="Y_N">[1]labels!$AE$2:$AE$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="209" uniqueCount="155">
   <si>
     <t>Baseline</t>
   </si>
@@ -524,7 +524,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
@@ -532,7 +532,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,7 +550,7 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="8" tint="-0.49995422223578601"/>
+      <color theme="8" tint="-0.49995422223579"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -800,244 +800,244 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true">
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyProtection="true">
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyProtection="true">
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true">
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyProtection="true">
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true">
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="37" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Millares 2" xfId="2" xr:uid="{376AFD77-B6EE-4997-9449-BB610DD78CC6}"/>
+    <cellStyle name="Millares 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{FCE8C554-9325-4365-9698-FEFC489E2216}"/>
+    <cellStyle name="Normal 4" xfId="3"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10947,7 +10947,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -10965,7 +10965,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2894BB0-8CB1-601E-966C-590ABF4E3FFF}"/>
             </a:ext>
           </a:extLst>
@@ -11001,7 +11001,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01079B0E-460B-BCD3-5D2B-428732F49250}"/>
             </a:ext>
           </a:extLst>
@@ -11037,7 +11037,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99CFC2F9-2177-4F03-A423-612958DE2601}"/>
             </a:ext>
           </a:extLst>
@@ -11075,7 +11075,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F080F8B8-BBCE-4283-B8DA-76BF482B1C89}"/>
             </a:ext>
           </a:extLst>
@@ -11113,7 +11113,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A23F4B-4546-428B-95ED-5B9E8E865D09}"/>
             </a:ext>
           </a:extLst>
@@ -11151,7 +11151,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="Gráfico 8">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53175F82-9BFA-435D-AB56-D46BC3184FCE}"/>
             </a:ext>
           </a:extLst>
@@ -11176,7 +11176,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -11194,7 +11194,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3164A08-672B-F2D9-8BB7-9876B7129824}"/>
             </a:ext>
           </a:extLst>
@@ -11230,7 +11230,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E1719D-8C7A-5CB8-174F-BF5377535983}"/>
             </a:ext>
           </a:extLst>
@@ -11253,7 +11253,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -11271,17 +11271,17 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6909EAE5-36A0-17FF-AB30-BC97D8C6F370}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="true"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11646,7 +11646,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11797,7 +11797,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -11821,9 +11821,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -11847,7 +11847,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -11882,7 +11882,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -11900,7 +11900,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -11925,7 +11925,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -11941,18 +11941,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94C01F2-7AD2-42D6-B650-F6FE26161B77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94C01F2-7AD2-42D6-B650-F6FE26161B77}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0"/>
+    <sheetView tabSelected="true" topLeftCell="A24" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="30" customWidth="true"/>
     <col min="2" max="16384" width="10.88671875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.3">
       <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
@@ -11960,7 +11960,7 @@
       <c r="H1" s="32"/>
       <c r="I1" s="33"/>
     </row>
-    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B2" s="59" t="s">
         <v>152</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>0</v>
       </c>
@@ -12011,7 +12011,7 @@
       <c r="H3" s="45"/>
       <c r="I3" s="46"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>151</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>-5.4669999999994445E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>150</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>-1.4189999999999259E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>138</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>-0.21719000000000221</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>139</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>-8.762999999999721E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>140</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>-0.16344999999999743</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>141</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>-0.10680999999999585</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>142</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>-0.37842999999999449</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>143</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>-0.32157000000000124</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" x14ac:dyDescent="0.3">
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -12318,7 +12318,7 @@
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" x14ac:dyDescent="0.3">
       <c r="B14" s="35" t="s">
         <v>147</v>
       </c>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
         <v>145</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="s">
         <v>148</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>0.24668108108108103</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" x14ac:dyDescent="0.3">
       <c r="A17" s="66">
         <v>2</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>24.668499914136</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" x14ac:dyDescent="0.3">
       <c r="A18" s="66">
         <v>3</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>5.6736036264959999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" x14ac:dyDescent="0.3">
       <c r="A19" s="66">
         <v>4</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>10.728819052848001</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" x14ac:dyDescent="0.3">
       <c r="A20" s="66">
         <v>5</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>8.6444616229920008</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" x14ac:dyDescent="0.3">
       <c r="A21" s="66">
         <v>6</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>11.881269789480003</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" x14ac:dyDescent="0.3">
       <c r="A22" s="66">
         <v>7</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>11.685591005868002</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" x14ac:dyDescent="0.3">
       <c r="A23" s="66">
         <v>8</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>15.975388869804004</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" x14ac:dyDescent="0.3">
       <c r="A24" s="66">
         <v>9</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>12.326682269304001</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" x14ac:dyDescent="0.3">
       <c r="A25" s="68" t="s">
         <v>149</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>14.819694838415998</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" x14ac:dyDescent="0.3">
       <c r="B26" s="74">
         <f>SUM(B16:B25)</f>
         <v>100.49456911291199</v>
@@ -12778,7 +12778,7 @@
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" x14ac:dyDescent="0.3">
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
     </row>
@@ -12794,7 +12794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12E558E-7C7B-420F-9944-128E702D35A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12E558E-7C7B-420F-9944-128E702D35A2}">
   <dimension ref="B2:M64"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -12804,15 +12804,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="12" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="true"/>
+    <col min="2" max="2" width="29.44140625" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="15" customWidth="true"/>
+    <col min="5" max="5" width="14.33203125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="22.21875" customWidth="true"/>
+    <col min="7" max="12" width="24.109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" ht="20.4" x14ac:dyDescent="0.35">
       <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
@@ -12821,7 +12821,7 @@
       <c r="E2" s="26"/>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="15" thickBot="true" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
@@ -12838,7 +12838,7 @@
       <c r="L3" s="28"/>
       <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="2:13" ht="28.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="28.2" thickTop="true" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>-8515.8109310040018</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>-3390.3241182720012</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>-1608.6741989760003</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>-2000.0317662000007</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>-3393.5674130279967</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>-642.17236168800036</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>-1432.4551838999987</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>-638.9290669320003</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>-1230.2898107760002</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>-2470.3095058199997</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>-2027.0592224999991</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>-2436.7954600079993</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>-830.28345753600001</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>-303.78860881199989</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>-7888.7739448440043</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>-314.59959133200005</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>-2183.8184690400003</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>32</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>-4954.6732889159921</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>-4060.605034512002</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>-442.16918506799993</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>35</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>-5180.622823583999</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>-3197.8886294159984</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>-5058.4587211079979</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>39</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>-707.03825680799991</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>41</v>
       </c>
@@ -14334,7 +14334,7 @@
         <v>-1660.5669150719996</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>42</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>-1305.9666884160006</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>43</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>-3198.9697276679981</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>45</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>-3806.546945291997</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>46</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>-372.97889694000014</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>47</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>48</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>-3101.6708849879979</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>49</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>-5646.5761701959891</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>50</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>-2502.7424533799986</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>52</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>-1384.8868608119997</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>53</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>-766.49866066799996</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>54</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>55</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>56</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>-1448.67165768</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>57</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>-456.22346234400015</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>58</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>-1945.976853600001</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>59</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>-1261.6416600839993</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>60</v>
       </c>
@@ -15198,7 +15198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>61</v>
       </c>
@@ -15244,7 +15244,7 @@
         <v>-916.77131769600101</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>62</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>63</v>
       </c>
@@ -15336,7 +15336,7 @@
         <v>-989.20490057999859</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>64</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>65</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>-3838.9798928519995</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>66</v>
       </c>
@@ -15472,7 +15472,7 @@
         <v>-340.54594938000014</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>67</v>
       </c>
@@ -15518,7 +15518,7 @@
         <v>-640.01016518399956</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>68</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="13" t="s">
         <v>69</v>
       </c>
@@ -15612,7 +15612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D225986-5496-4C9C-BB8E-196D43485AE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D225986-5496-4C9C-BB8E-196D43485AE5}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15621,15 +15621,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="12.88671875" bestFit="true" customWidth="true"/>
+    <col min="4" max="6" width="6.109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="12" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="6.88671875" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="19.77734375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="21.6640625" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>70</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1.0269999999999999</v>
       </c>
@@ -15701,7 +15701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15710,45 +15710,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="16.88671875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="15.88671875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="9.44140625" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="16.88671875" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="15.88671875" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="9.44140625" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="K1" t="s">
         <v>96</v>
@@ -15778,184 +15778,184 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="5">
         <v>11</v>
       </c>
       <c r="B2" s="5">
-        <v>24686.878584420003</v>
+        <v>24686.87858442</v>
       </c>
       <c r="C2" s="5">
-        <v>33202.689515424005</v>
+        <v>33202.689515424</v>
       </c>
       <c r="D2" s="5">
-        <v>33287.015179080001</v>
+        <v>33287.01517908</v>
       </c>
       <c r="E2" s="5">
-        <v>24686.878584420003</v>
+        <v>24686.87858442</v>
       </c>
       <c r="F2" s="5">
-        <v>24686.878584420003</v>
+        <v>24686.87858442</v>
       </c>
       <c r="G2" s="5">
-        <v>33202.689515424005</v>
+        <v>33202.689515424</v>
       </c>
       <c r="H2" s="5">
-        <v>33287.015179080001</v>
+        <v>33287.01517908</v>
       </c>
       <c r="I2" s="5">
-        <v>33202.689515424005</v>
+        <v>33202.689515424</v>
       </c>
       <c r="J2" s="5">
-        <v>33287.015179080001</v>
+        <v>33287.01517908</v>
       </c>
       <c r="K2" s="5">
-        <v>451295433.19491255</v>
+        <v>451295433.1949126</v>
       </c>
       <c r="L2" s="5">
-        <v>695403943.53784549</v>
+        <v>695403943.5378455</v>
       </c>
       <c r="M2" s="5">
-        <v>720740639.39302087</v>
+        <v>720740639.3930209</v>
       </c>
       <c r="N2" s="5">
-        <v>902590866.38982511</v>
+        <v>902590866.3898251</v>
       </c>
       <c r="O2" s="5">
-        <v>631813606.47287738</v>
+        <v>631813606.4728774</v>
       </c>
       <c r="P2" s="5">
         <v>973565520.9529835</v>
       </c>
       <c r="Q2" s="5">
-        <v>1009036895.1502296</v>
+        <v>1009036895.15023</v>
       </c>
       <c r="R2" s="5">
-        <v>1424860954.1478963</v>
+        <v>1424860954.147896</v>
       </c>
       <c r="S2" s="5">
-        <v>1460332328.3451419</v>
+        <v>1460332328.345142</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="5">
         <v>12</v>
       </c>
       <c r="B3" s="5">
-        <v>8721.2195988839994</v>
+        <v>8721.219598883999</v>
       </c>
       <c r="C3" s="5">
-        <v>12111.543717156001</v>
+        <v>12111.543717156</v>
       </c>
       <c r="D3" s="5">
-        <v>11816.403894359999</v>
+        <v>11816.40389436</v>
       </c>
       <c r="E3" s="5">
-        <v>8721.2195988839994</v>
+        <v>8721.219598883999</v>
       </c>
       <c r="F3" s="5">
-        <v>8721.2195988839994</v>
+        <v>8721.219598883999</v>
       </c>
       <c r="G3" s="5">
-        <v>12111.543717156001</v>
+        <v>12111.543717156</v>
       </c>
       <c r="H3" s="5">
-        <v>11816.403894359999</v>
+        <v>11816.40389436</v>
       </c>
       <c r="I3" s="5">
-        <v>12111.543717156001</v>
+        <v>12111.543717156</v>
       </c>
       <c r="J3" s="5">
-        <v>11816.403894359999</v>
+        <v>11816.40389436</v>
       </c>
       <c r="K3" s="5">
-        <v>64111962.991490647</v>
+        <v>64111962.99149065</v>
       </c>
       <c r="L3" s="5">
-        <v>105864451.64963065</v>
+        <v>105864451.6496307</v>
       </c>
       <c r="M3" s="5">
-        <v>131504024.36033066</v>
+        <v>131504024.3603307</v>
       </c>
       <c r="N3" s="5">
-        <v>128223925.98298129</v>
+        <v>128223925.9829813</v>
       </c>
       <c r="O3" s="5">
-        <v>89756748.188086897</v>
+        <v>89756748.1880869</v>
       </c>
       <c r="P3" s="5">
         <v>148210232.3094829</v>
       </c>
       <c r="Q3" s="5">
-        <v>184105634.10446289</v>
+        <v>184105634.1044629</v>
       </c>
       <c r="R3" s="5">
-        <v>212322195.30097356</v>
+        <v>212322195.3009736</v>
       </c>
       <c r="S3" s="5">
-        <v>248217597.09595355</v>
+        <v>248217597.0959536</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="5">
         <v>13</v>
       </c>
       <c r="B4" s="5">
-        <v>4717.9127717279989</v>
+        <v>4717.912771727999</v>
       </c>
       <c r="C4" s="5">
-        <v>6326.5869707039992</v>
+        <v>6326.586970703999</v>
       </c>
       <c r="D4" s="5">
-        <v>6356.8577217599986</v>
+        <v>6356.857721759999</v>
       </c>
       <c r="E4" s="5">
-        <v>4717.9127717279989</v>
+        <v>4717.912771727999</v>
       </c>
       <c r="F4" s="5">
-        <v>4717.9127717279989</v>
+        <v>4717.912771727999</v>
       </c>
       <c r="G4" s="5">
-        <v>6326.5869707039992</v>
+        <v>6326.586970703999</v>
       </c>
       <c r="H4" s="5">
-        <v>6356.8577217599986</v>
+        <v>6356.857721759999</v>
       </c>
       <c r="I4" s="5">
-        <v>6326.5869707039992</v>
+        <v>6326.586970703999</v>
       </c>
       <c r="J4" s="5">
-        <v>6356.8577217599986</v>
+        <v>6356.857721759999</v>
       </c>
       <c r="K4" s="5">
-        <v>42442095.472761162</v>
+        <v>42442095.47276116</v>
       </c>
       <c r="L4" s="5">
         <v>57304470.59174116</v>
       </c>
       <c r="M4" s="5">
-        <v>59823301.416738436</v>
+        <v>59823301.41673844</v>
       </c>
       <c r="N4" s="5">
-        <v>84884190.945522323</v>
+        <v>84884190.94552232</v>
       </c>
       <c r="O4" s="5">
-        <v>59418933.661865622</v>
+        <v>59418933.66186562</v>
       </c>
       <c r="P4" s="5">
-        <v>80226258.828437626</v>
+        <v>80226258.82843763</v>
       </c>
       <c r="Q4" s="5">
-        <v>83752621.983433813</v>
+        <v>83752621.98343381</v>
       </c>
       <c r="R4" s="5">
-        <v>122668354.30119878</v>
+        <v>122668354.3011988</v>
       </c>
       <c r="S4" s="5">
-        <v>126194717.45619498</v>
+        <v>126194717.456195</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="5">
         <v>14</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>5927.661715715999</v>
       </c>
       <c r="C5" s="5">
-        <v>7927.6934819159997</v>
+        <v>7927.693481916</v>
       </c>
       <c r="D5" s="5">
         <v>8375.268158244</v>
@@ -15975,376 +15975,376 @@
         <v>5927.661715715999</v>
       </c>
       <c r="G5" s="5">
-        <v>7927.6934819159997</v>
+        <v>7927.693481916</v>
       </c>
       <c r="H5" s="5">
         <v>8375.268158244</v>
       </c>
       <c r="I5" s="5">
-        <v>7927.6934819159997</v>
+        <v>7927.693481916</v>
       </c>
       <c r="J5" s="5">
         <v>8375.268158244</v>
       </c>
       <c r="K5" s="5">
-        <v>63426208.934709877</v>
+        <v>63426208.93470988</v>
       </c>
       <c r="L5" s="5">
-        <v>85129685.350852728</v>
+        <v>85129685.35085273</v>
       </c>
       <c r="M5" s="5">
-        <v>93810217.902824178</v>
+        <v>93810217.90282418</v>
       </c>
       <c r="N5" s="5">
-        <v>126852417.86941975</v>
+        <v>126852417.8694198</v>
       </c>
       <c r="O5" s="5">
-        <v>88796692.508593827</v>
+        <v>88796692.50859383</v>
       </c>
       <c r="P5" s="5">
-        <v>119181559.49119383</v>
+        <v>119181559.4911938</v>
       </c>
       <c r="Q5" s="5">
-        <v>131334305.06395382</v>
+        <v>131334305.0639538</v>
       </c>
       <c r="R5" s="5">
-        <v>182607768.42590371</v>
+        <v>182607768.4259037</v>
       </c>
       <c r="S5" s="5">
-        <v>194760513.99866369</v>
+        <v>194760513.9986637</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="5">
         <v>21</v>
       </c>
       <c r="B6" s="5">
-        <v>9932.0496411239983</v>
+        <v>9932.049641123998</v>
       </c>
       <c r="C6" s="5">
-        <v>13325.617054151995</v>
+        <v>13325.617054152</v>
       </c>
       <c r="D6" s="5">
-        <v>13325.617054151995</v>
+        <v>13325.617054152</v>
       </c>
       <c r="E6" s="5">
-        <v>9932.0496411239983</v>
+        <v>9932.049641123998</v>
       </c>
       <c r="F6" s="5">
-        <v>9932.0496411239983</v>
+        <v>9932.049641123998</v>
       </c>
       <c r="G6" s="5">
-        <v>13325.617054151995</v>
+        <v>13325.617054152</v>
       </c>
       <c r="H6" s="5">
-        <v>13325.617054151995</v>
+        <v>13325.617054152</v>
       </c>
       <c r="I6" s="5">
-        <v>13325.617054151995</v>
+        <v>13325.617054152</v>
       </c>
       <c r="J6" s="5">
-        <v>13325.617054151995</v>
+        <v>13325.617054152</v>
       </c>
       <c r="K6" s="5">
-        <v>96999850.596926644</v>
+        <v>96999850.59692664</v>
       </c>
       <c r="L6" s="5">
-        <v>137409746.41198164</v>
+        <v>137409746.4119816</v>
       </c>
       <c r="M6" s="5">
-        <v>174036146.13775048</v>
+        <v>174036146.1377505</v>
       </c>
       <c r="N6" s="5">
-        <v>193999701.19385329</v>
+        <v>193999701.1938533</v>
       </c>
       <c r="O6" s="5">
-        <v>135799790.83569732</v>
+        <v>135799790.8356973</v>
       </c>
       <c r="P6" s="5">
-        <v>192373644.97677431</v>
+        <v>192373644.9767743</v>
       </c>
       <c r="Q6" s="5">
-        <v>243650604.59285071</v>
+        <v>243650604.5928507</v>
       </c>
       <c r="R6" s="5">
         <v>289373495.5737009</v>
       </c>
       <c r="S6" s="5">
-        <v>340650455.18977737</v>
+        <v>340650455.1897774</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="5">
         <v>22</v>
       </c>
       <c r="B7" s="5">
-        <v>2006.5183557119999</v>
+        <v>2006.518355712</v>
       </c>
       <c r="C7" s="5">
-        <v>2648.6907174000003</v>
+        <v>2648.6907174</v>
       </c>
       <c r="D7" s="5">
-        <v>2648.6907174000003</v>
+        <v>2648.6907174</v>
       </c>
       <c r="E7" s="5">
-        <v>2006.5183557119999</v>
+        <v>2006.518355712</v>
       </c>
       <c r="F7" s="5">
-        <v>2006.5183557119999</v>
+        <v>2006.518355712</v>
       </c>
       <c r="G7" s="5">
-        <v>2648.6907174000003</v>
+        <v>2648.6907174</v>
       </c>
       <c r="H7" s="5">
-        <v>2648.6907174000003</v>
+        <v>2648.6907174</v>
       </c>
       <c r="I7" s="5">
-        <v>2648.6907174000003</v>
+        <v>2648.6907174</v>
       </c>
       <c r="J7" s="5">
-        <v>2648.6907174000003</v>
+        <v>2648.6907174</v>
       </c>
       <c r="K7" s="5">
-        <v>41303058.412589997</v>
+        <v>41303058.41259</v>
       </c>
       <c r="L7" s="5">
-        <v>51722271.518412851</v>
+        <v>51722271.51841285</v>
       </c>
       <c r="M7" s="5">
-        <v>58821998.181904286</v>
+        <v>58821998.18190429</v>
       </c>
       <c r="N7" s="5">
-        <v>82606116.825179994</v>
+        <v>82606116.82517999</v>
       </c>
       <c r="O7" s="5">
-        <v>57824281.777625993</v>
+        <v>57824281.77762599</v>
       </c>
       <c r="P7" s="5">
         <v>72411180.12577799</v>
       </c>
       <c r="Q7" s="5">
-        <v>82350797.454665989</v>
+        <v>82350797.45466599</v>
       </c>
       <c r="R7" s="5">
-        <v>113714238.53836797</v>
+        <v>113714238.538368</v>
       </c>
       <c r="S7" s="5">
-        <v>123653855.86725597</v>
+        <v>123653855.867256</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="5">
         <v>23</v>
       </c>
       <c r="B8" s="5">
-        <v>4742.7780315240007</v>
+        <v>4742.778031524001</v>
       </c>
       <c r="C8" s="5">
-        <v>6175.2332154239994</v>
+        <v>6175.233215423999</v>
       </c>
       <c r="D8" s="5">
-        <v>6312.5326934280029</v>
+        <v>6312.532693428003</v>
       </c>
       <c r="E8" s="5">
-        <v>4742.7780315240007</v>
+        <v>4742.778031524001</v>
       </c>
       <c r="F8" s="5">
-        <v>4742.7780315240007</v>
+        <v>4742.778031524001</v>
       </c>
       <c r="G8" s="5">
-        <v>6175.2332154239994</v>
+        <v>6175.233215423999</v>
       </c>
       <c r="H8" s="5">
-        <v>6312.5326934280029</v>
+        <v>6312.532693428003</v>
       </c>
       <c r="I8" s="5">
-        <v>6175.2332154239994</v>
+        <v>6175.233215423999</v>
       </c>
       <c r="J8" s="5">
-        <v>6312.5326934280029</v>
+        <v>6312.532693428003</v>
       </c>
       <c r="K8" s="5">
-        <v>51840812.069713041</v>
+        <v>51840812.06971304</v>
       </c>
       <c r="L8" s="5">
-        <v>69213732.685575202</v>
+        <v>69213732.6855752</v>
       </c>
       <c r="M8" s="5">
-        <v>74568457.476728767</v>
+        <v>74568457.47672877</v>
       </c>
       <c r="N8" s="5">
-        <v>103681624.13942608</v>
+        <v>103681624.1394261</v>
       </c>
       <c r="O8" s="5">
-        <v>72577136.897598267</v>
+        <v>72577136.89759827</v>
       </c>
       <c r="P8" s="5">
-        <v>96899225.759805337</v>
+        <v>96899225.75980534</v>
       </c>
       <c r="Q8" s="5">
-        <v>104395840.46742027</v>
+        <v>104395840.4674203</v>
       </c>
       <c r="R8" s="5">
-        <v>148740037.82951838</v>
+        <v>148740037.8295184</v>
       </c>
       <c r="S8" s="5">
-        <v>156236652.53713334</v>
+        <v>156236652.5371333</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="5">
         <v>31</v>
       </c>
       <c r="B9" s="5">
-        <v>1791.3798035639998</v>
+        <v>1791.379803564</v>
       </c>
       <c r="C9" s="5">
-        <v>2430.3088704960001</v>
+        <v>2430.308870496</v>
       </c>
       <c r="D9" s="5">
-        <v>2511.3912393959999</v>
+        <v>2511.391239396</v>
       </c>
       <c r="E9" s="5">
-        <v>1791.3798035639998</v>
+        <v>1791.379803564</v>
       </c>
       <c r="F9" s="5">
-        <v>1791.3798035639998</v>
+        <v>1791.379803564</v>
       </c>
       <c r="G9" s="5">
-        <v>2430.3088704960001</v>
+        <v>2430.308870496</v>
       </c>
       <c r="H9" s="5">
-        <v>2511.3912393959999</v>
+        <v>2511.391239396</v>
       </c>
       <c r="I9" s="5">
-        <v>2430.3088704960001</v>
+        <v>2430.308870496</v>
       </c>
       <c r="J9" s="5">
-        <v>2511.3912393959999</v>
+        <v>2511.391239396</v>
       </c>
       <c r="K9" s="5">
-        <v>9899544.0146899149</v>
+        <v>9899544.014689915</v>
       </c>
       <c r="L9" s="5">
-        <v>13449149.942089915</v>
+        <v>13449149.94208992</v>
       </c>
       <c r="M9" s="5">
-        <v>32355499.134804204</v>
+        <v>32355499.1348042</v>
       </c>
       <c r="N9" s="5">
         <v>19799088.02937983</v>
       </c>
       <c r="O9" s="5">
-        <v>13859361.620565882</v>
+        <v>13859361.62056588</v>
       </c>
       <c r="P9" s="5">
-        <v>18828809.918925881</v>
+        <v>18828809.91892588</v>
       </c>
       <c r="Q9" s="5">
-        <v>45297698.788725883</v>
+        <v>45297698.78872588</v>
       </c>
       <c r="R9" s="5">
-        <v>28728353.933615796</v>
+        <v>28728353.9336158</v>
       </c>
       <c r="S9" s="5">
-        <v>55197242.803415798</v>
+        <v>55197242.8034158</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="5">
         <v>32</v>
       </c>
       <c r="B10" s="5">
-        <v>3341.6746969320002</v>
+        <v>3341.674696932</v>
       </c>
       <c r="C10" s="5">
-        <v>4571.9645077080004</v>
+        <v>4571.964507708</v>
       </c>
       <c r="D10" s="5">
-        <v>4483.3144510440006</v>
+        <v>4483.314451044001</v>
       </c>
       <c r="E10" s="5">
-        <v>3341.6746969320002</v>
+        <v>3341.674696932</v>
       </c>
       <c r="F10" s="5">
-        <v>3341.6746969320002</v>
+        <v>3341.674696932</v>
       </c>
       <c r="G10" s="5">
-        <v>4571.9645077080004</v>
+        <v>4571.964507708</v>
       </c>
       <c r="H10" s="5">
-        <v>4483.3144510440006</v>
+        <v>4483.314451044001</v>
       </c>
       <c r="I10" s="5">
-        <v>4571.9645077080004</v>
+        <v>4571.964507708</v>
       </c>
       <c r="J10" s="5">
-        <v>4483.3144510440006</v>
+        <v>4483.314451044001</v>
       </c>
       <c r="K10" s="5">
-        <v>14618420.500335196</v>
+        <v>14618420.5003352</v>
       </c>
       <c r="L10" s="5">
-        <v>22995983.787327468</v>
+        <v>22995983.78732747</v>
       </c>
       <c r="M10" s="5">
-        <v>32562756.051534936</v>
+        <v>32562756.05153494</v>
       </c>
       <c r="N10" s="5">
-        <v>29236841.000670392</v>
+        <v>29236841.00067039</v>
       </c>
       <c r="O10" s="5">
-        <v>20465788.700469274</v>
+        <v>20465788.70046927</v>
       </c>
       <c r="P10" s="5">
-        <v>32194377.302258458</v>
+        <v>32194377.30225846</v>
       </c>
       <c r="Q10" s="5">
-        <v>45587858.472148918</v>
+        <v>45587858.47214892</v>
       </c>
       <c r="R10" s="5">
-        <v>46812797.802593648</v>
+        <v>46812797.80259365</v>
       </c>
       <c r="S10" s="5">
-        <v>60206278.972484104</v>
+        <v>60206278.9724841</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="5">
         <v>33</v>
       </c>
       <c r="B11" s="5">
-        <v>7227.1418146199994</v>
+        <v>7227.141814619999</v>
       </c>
       <c r="C11" s="5">
-        <v>9697.4513204399991</v>
+        <v>9697.451320439999</v>
       </c>
       <c r="D11" s="5">
-        <v>10332.055994363998</v>
+        <v>10332.055994364</v>
       </c>
       <c r="E11" s="5">
-        <v>7227.1418146199994</v>
+        <v>7227.141814619999</v>
       </c>
       <c r="F11" s="5">
-        <v>7227.1418146199994</v>
+        <v>7227.141814619999</v>
       </c>
       <c r="G11" s="5">
-        <v>9697.4513204399991</v>
+        <v>9697.451320439999</v>
       </c>
       <c r="H11" s="5">
-        <v>10332.055994363998</v>
+        <v>10332.055994364</v>
       </c>
       <c r="I11" s="5">
-        <v>9697.4513204399991</v>
+        <v>9697.451320439999</v>
       </c>
       <c r="J11" s="5">
-        <v>10332.055994363998</v>
+        <v>10332.055994364</v>
       </c>
       <c r="K11" s="5">
-        <v>55340932.109926999</v>
+        <v>55340932.109927</v>
       </c>
       <c r="L11" s="5">
-        <v>80579920.144929767</v>
+        <v>80579920.14492977</v>
       </c>
       <c r="M11" s="5">
         <v>96807957.090737</v>
@@ -16353,81 +16353,81 @@
         <v>110681864.219854</v>
       </c>
       <c r="O11" s="5">
-        <v>77477304.953897804</v>
+        <v>77477304.9538978</v>
       </c>
       <c r="P11" s="5">
-        <v>112811888.20290169</v>
+        <v>112811888.2029017</v>
       </c>
       <c r="Q11" s="5">
-        <v>135531139.92703179</v>
+        <v>135531139.9270318</v>
       </c>
       <c r="R11" s="5">
-        <v>168152820.31282869</v>
+        <v>168152820.3128287</v>
       </c>
       <c r="S11" s="5">
-        <v>190872072.03695881</v>
+        <v>190872072.0369588</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="5">
         <v>41</v>
       </c>
       <c r="B12" s="5">
-        <v>6156.8545451399978</v>
+        <v>6156.854545139998</v>
       </c>
       <c r="C12" s="5">
-        <v>8183.9137676399969</v>
+        <v>8183.913767639997</v>
       </c>
       <c r="D12" s="5">
-        <v>8006.6136543119983</v>
+        <v>8006.613654311998</v>
       </c>
       <c r="E12" s="5">
-        <v>6156.8545451399978</v>
+        <v>6156.854545139998</v>
       </c>
       <c r="F12" s="5">
-        <v>6156.8545451399978</v>
+        <v>6156.854545139998</v>
       </c>
       <c r="G12" s="5">
-        <v>8183.9137676399969</v>
+        <v>8183.913767639997</v>
       </c>
       <c r="H12" s="5">
-        <v>8006.6136543119983</v>
+        <v>8006.613654311998</v>
       </c>
       <c r="I12" s="5">
-        <v>8183.9137676399969</v>
+        <v>8183.913767639997</v>
       </c>
       <c r="J12" s="5">
-        <v>8006.6136543119983</v>
+        <v>8006.613654311998</v>
       </c>
       <c r="K12" s="5">
-        <v>61267729.998665631</v>
+        <v>61267729.99866563</v>
       </c>
       <c r="L12" s="5">
-        <v>84666352.827797979</v>
+        <v>84666352.82779798</v>
       </c>
       <c r="M12" s="5">
-        <v>108378002.05346705</v>
+        <v>108378002.0534671</v>
       </c>
       <c r="N12" s="5">
-        <v>122535459.99733126</v>
+        <v>122535459.9973313</v>
       </c>
       <c r="O12" s="5">
-        <v>85774821.998131901</v>
+        <v>85774821.9981319</v>
       </c>
       <c r="P12" s="5">
         <v>118532893.9589172</v>
       </c>
       <c r="Q12" s="5">
-        <v>151729202.87485385</v>
+        <v>151729202.8748538</v>
       </c>
       <c r="R12" s="5">
-        <v>179800623.95758283</v>
+        <v>179800623.9575828</v>
       </c>
       <c r="S12" s="5">
-        <v>212996932.87351951</v>
+        <v>212996932.8735195</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="5">
         <v>42</v>
       </c>
@@ -16435,10 +16435,10 @@
         <v>7193.627768807999</v>
       </c>
       <c r="C13" s="5">
-        <v>9630.4232288159983</v>
+        <v>9630.423228815998</v>
       </c>
       <c r="D13" s="5">
-        <v>9576.3683162159978</v>
+        <v>9576.368316215998</v>
       </c>
       <c r="E13" s="5">
         <v>7193.627768807999</v>
@@ -16447,155 +16447,155 @@
         <v>7193.627768807999</v>
       </c>
       <c r="G13" s="5">
-        <v>9630.4232288159983</v>
+        <v>9630.423228815998</v>
       </c>
       <c r="H13" s="5">
-        <v>9576.3683162159978</v>
+        <v>9576.368316215998</v>
       </c>
       <c r="I13" s="5">
-        <v>9630.4232288159983</v>
+        <v>9630.423228815998</v>
       </c>
       <c r="J13" s="5">
-        <v>9576.3683162159978</v>
+        <v>9576.368316215998</v>
       </c>
       <c r="K13" s="5">
-        <v>64089411.457028247</v>
+        <v>64089411.45702825</v>
       </c>
       <c r="L13" s="5">
-        <v>96945502.060881108</v>
+        <v>96945502.06088111</v>
       </c>
       <c r="M13" s="5">
-        <v>97537608.557315528</v>
+        <v>97537608.55731553</v>
       </c>
       <c r="N13" s="5">
-        <v>128178822.91405649</v>
+        <v>128178822.9140565</v>
       </c>
       <c r="O13" s="5">
-        <v>89725176.039839536</v>
+        <v>89725176.03983954</v>
       </c>
       <c r="P13" s="5">
-        <v>135723702.88523352</v>
+        <v>135723702.8852335</v>
       </c>
       <c r="Q13" s="5">
-        <v>136552651.98024172</v>
+        <v>136552651.9802417</v>
       </c>
       <c r="R13" s="5">
-        <v>199813114.34226182</v>
+        <v>199813114.3422618</v>
       </c>
       <c r="S13" s="5">
-        <v>200642063.43727002</v>
+        <v>200642063.43727</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="5">
         <v>43</v>
       </c>
       <c r="B14" s="5">
-        <v>1938.4091658360001</v>
+        <v>1938.409165836</v>
       </c>
       <c r="C14" s="5">
-        <v>2768.6926233720001</v>
+        <v>2768.692623372</v>
       </c>
       <c r="D14" s="5">
-        <v>2741.6651670720003</v>
+        <v>2741.665167072</v>
       </c>
       <c r="E14" s="5">
-        <v>1938.4091658360001</v>
+        <v>1938.409165836</v>
       </c>
       <c r="F14" s="5">
-        <v>1938.4091658360001</v>
+        <v>1938.409165836</v>
       </c>
       <c r="G14" s="5">
-        <v>2768.6926233720001</v>
+        <v>2768.692623372</v>
       </c>
       <c r="H14" s="5">
-        <v>2741.6651670720003</v>
+        <v>2741.665167072</v>
       </c>
       <c r="I14" s="5">
-        <v>2768.6926233720001</v>
+        <v>2768.692623372</v>
       </c>
       <c r="J14" s="5">
-        <v>2741.6651670720003</v>
+        <v>2741.665167072</v>
       </c>
       <c r="K14" s="5">
-        <v>9469802.0964705292</v>
+        <v>9469802.096470529</v>
       </c>
       <c r="L14" s="5">
-        <v>15504687.982434165</v>
+        <v>15504687.98243416</v>
       </c>
       <c r="M14" s="5">
-        <v>29187489.786876243</v>
+        <v>29187489.78687624</v>
       </c>
       <c r="N14" s="5">
-        <v>18939604.192941058</v>
+        <v>18939604.19294106</v>
       </c>
       <c r="O14" s="5">
-        <v>13257722.935058741</v>
+        <v>13257722.93505874</v>
       </c>
       <c r="P14" s="5">
-        <v>21706563.175407834</v>
+        <v>21706563.17540783</v>
       </c>
       <c r="Q14" s="5">
-        <v>40862485.701626748</v>
+        <v>40862485.70162675</v>
       </c>
       <c r="R14" s="5">
-        <v>31176365.271878362</v>
+        <v>31176365.27187836</v>
       </c>
       <c r="S14" s="5">
-        <v>50332287.798097268</v>
+        <v>50332287.79809727</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="5">
         <v>51</v>
       </c>
       <c r="B15" s="5">
-        <v>1240.0196950439999</v>
+        <v>1240.019695044</v>
       </c>
       <c r="C15" s="5">
-        <v>1543.8083038559998</v>
+        <v>1543.808303856</v>
       </c>
       <c r="D15" s="5">
-        <v>1617.3229849919999</v>
+        <v>1617.322984992</v>
       </c>
       <c r="E15" s="5">
-        <v>1240.0196950439999</v>
+        <v>1240.019695044</v>
       </c>
       <c r="F15" s="5">
-        <v>1240.0196950439999</v>
+        <v>1240.019695044</v>
       </c>
       <c r="G15" s="5">
-        <v>1543.8083038559998</v>
+        <v>1543.808303856</v>
       </c>
       <c r="H15" s="5">
-        <v>1617.3229849919999</v>
+        <v>1617.322984992</v>
       </c>
       <c r="I15" s="5">
-        <v>1543.8083038559998</v>
+        <v>1543.808303856</v>
       </c>
       <c r="J15" s="5">
-        <v>1617.3229849919999</v>
+        <v>1617.322984992</v>
       </c>
       <c r="K15" s="5">
-        <v>3995970.1443264997</v>
+        <v>3995970.1443265</v>
       </c>
       <c r="L15" s="5">
         <v>5594857.5591265</v>
       </c>
       <c r="M15" s="5">
-        <v>29735936.707853772</v>
+        <v>29735936.70785377</v>
       </c>
       <c r="N15" s="5">
-        <v>7991940.2886529993</v>
+        <v>7991940.288652999</v>
       </c>
       <c r="O15" s="5">
         <v>5594358.202057099</v>
       </c>
       <c r="P15" s="5">
-        <v>7832800.5827770997</v>
+        <v>7832800.5827771</v>
       </c>
       <c r="Q15" s="5">
-        <v>41630311.390995279</v>
+        <v>41630311.39099528</v>
       </c>
       <c r="R15" s="5">
         <v>11828770.7271036</v>
@@ -16604,125 +16604,125 @@
         <v>45626281.53532178</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="5">
         <v>52</v>
       </c>
       <c r="B16" s="5">
-        <v>23423.074727832023</v>
+        <v>23423.07472783202</v>
       </c>
       <c r="C16" s="5">
-        <v>31311.848672676027</v>
+        <v>31311.84867267603</v>
       </c>
       <c r="D16" s="5">
-        <v>31342.119423732034</v>
+        <v>31342.11942373203</v>
       </c>
       <c r="E16" s="5">
-        <v>23423.074727832023</v>
+        <v>23423.07472783202</v>
       </c>
       <c r="F16" s="5">
-        <v>23423.074727832023</v>
+        <v>23423.07472783202</v>
       </c>
       <c r="G16" s="5">
-        <v>31311.848672676027</v>
+        <v>31311.84867267603</v>
       </c>
       <c r="H16" s="5">
-        <v>31342.119423732034</v>
+        <v>31342.11942373203</v>
       </c>
       <c r="I16" s="5">
-        <v>31311.848672676027</v>
+        <v>31311.84867267603</v>
       </c>
       <c r="J16" s="5">
-        <v>31342.119423732034</v>
+        <v>31342.11942373203</v>
       </c>
       <c r="K16" s="5">
-        <v>259232248.67890993</v>
+        <v>259232248.6789099</v>
       </c>
       <c r="L16" s="5">
-        <v>429538928.93795532</v>
+        <v>429538928.9379553</v>
       </c>
       <c r="M16" s="5">
-        <v>472059457.89019001</v>
+        <v>472059457.89019</v>
       </c>
       <c r="N16" s="5">
-        <v>518464497.35781986</v>
+        <v>518464497.3578199</v>
       </c>
       <c r="O16" s="5">
-        <v>362925148.15047431</v>
+        <v>362925148.1504743</v>
       </c>
       <c r="P16" s="5">
-        <v>601354500.51313782</v>
+        <v>601354500.5131378</v>
       </c>
       <c r="Q16" s="5">
-        <v>660883241.04626632</v>
+        <v>660883241.0462663</v>
       </c>
       <c r="R16" s="5">
         <v>860586749.1920476</v>
       </c>
       <c r="S16" s="5">
-        <v>920115489.72517586</v>
+        <v>920115489.7251759</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="5">
         <v>53</v>
       </c>
       <c r="B17" s="5">
-        <v>1318.9398674400002</v>
+        <v>1318.93986744</v>
       </c>
       <c r="C17" s="5">
-        <v>1633.5394587720002</v>
+        <v>1633.539458772</v>
       </c>
       <c r="D17" s="5">
-        <v>1633.5394587720002</v>
+        <v>1633.539458772</v>
       </c>
       <c r="E17" s="5">
-        <v>1318.9398674400002</v>
+        <v>1318.93986744</v>
       </c>
       <c r="F17" s="5">
-        <v>1318.9398674400002</v>
+        <v>1318.93986744</v>
       </c>
       <c r="G17" s="5">
-        <v>1633.5394587720002</v>
+        <v>1633.539458772</v>
       </c>
       <c r="H17" s="5">
-        <v>1633.5394587720002</v>
+        <v>1633.539458772</v>
       </c>
       <c r="I17" s="5">
-        <v>1633.5394587720002</v>
+        <v>1633.539458772</v>
       </c>
       <c r="J17" s="5">
-        <v>1633.5394587720002</v>
+        <v>1633.539458772</v>
       </c>
       <c r="K17" s="5">
-        <v>7375833.7749613645</v>
+        <v>7375833.774961364</v>
       </c>
       <c r="L17" s="5">
-        <v>10521829.688281365</v>
+        <v>10521829.68828136</v>
       </c>
       <c r="M17" s="5">
-        <v>10521829.688281365</v>
+        <v>10521829.68828136</v>
       </c>
       <c r="N17" s="5">
-        <v>14751667.549922729</v>
+        <v>14751667.54992273</v>
       </c>
       <c r="O17" s="5">
-        <v>10326167.284945909</v>
+        <v>10326167.28494591</v>
       </c>
       <c r="P17" s="5">
-        <v>14730561.563593909</v>
+        <v>14730561.56359391</v>
       </c>
       <c r="Q17" s="5">
-        <v>14730561.563593909</v>
+        <v>14730561.56359391</v>
       </c>
       <c r="R17" s="5">
-        <v>22106395.338555273</v>
+        <v>22106395.33855527</v>
       </c>
       <c r="S17" s="5">
-        <v>22106395.338555273</v>
+        <v>22106395.33855527</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="5">
         <v>54</v>
       </c>
@@ -16730,10 +16730,10 @@
         <v>6365.506507776</v>
       </c>
       <c r="C18" s="5">
-        <v>8549.3249768160003</v>
+        <v>8549.324976816</v>
       </c>
       <c r="D18" s="5">
-        <v>8566.6225488480013</v>
+        <v>8566.622548848001</v>
       </c>
       <c r="E18" s="5">
         <v>6365.506507776</v>
@@ -16742,523 +16742,523 @@
         <v>6365.506507776</v>
       </c>
       <c r="G18" s="5">
-        <v>8549.3249768160003</v>
+        <v>8549.324976816</v>
       </c>
       <c r="H18" s="5">
-        <v>8566.6225488480013</v>
+        <v>8566.622548848001</v>
       </c>
       <c r="I18" s="5">
-        <v>8549.3249768160003</v>
+        <v>8549.324976816</v>
       </c>
       <c r="J18" s="5">
-        <v>8566.6225488480013</v>
+        <v>8566.622548848001</v>
       </c>
       <c r="K18" s="5">
-        <v>62191186.739818759</v>
+        <v>62191186.73981876</v>
       </c>
       <c r="L18" s="5">
-        <v>87303133.500593305</v>
+        <v>87303133.5005933</v>
       </c>
       <c r="M18" s="5">
-        <v>94335077.019713297</v>
+        <v>94335077.0197133</v>
       </c>
       <c r="N18" s="5">
-        <v>124382373.47963752</v>
+        <v>124382373.4796375</v>
       </c>
       <c r="O18" s="5">
-        <v>87067661.435746267</v>
+        <v>87067661.43574627</v>
       </c>
       <c r="P18" s="5">
-        <v>122224386.90083063</v>
+        <v>122224386.9008306</v>
       </c>
       <c r="Q18" s="5">
-        <v>132069107.82759863</v>
+        <v>132069107.8275986</v>
       </c>
       <c r="R18" s="5">
-        <v>184415573.64064938</v>
+        <v>184415573.6406494</v>
       </c>
       <c r="S18" s="5">
-        <v>194260294.56741744</v>
+        <v>194260294.5674174</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="5">
         <v>61</v>
       </c>
       <c r="B19" s="5">
-        <v>14710.503914963991</v>
+        <v>14710.50391496399</v>
       </c>
       <c r="C19" s="5">
-        <v>19665.177203879983</v>
+        <v>19665.17720387998</v>
       </c>
       <c r="D19" s="5">
-        <v>19584.094834979987</v>
+        <v>19584.09483497999</v>
       </c>
       <c r="E19" s="5">
-        <v>14710.503914963991</v>
+        <v>14710.50391496399</v>
       </c>
       <c r="F19" s="5">
-        <v>14710.503914963991</v>
+        <v>14710.50391496399</v>
       </c>
       <c r="G19" s="5">
-        <v>19665.177203879983</v>
+        <v>19665.17720387998</v>
       </c>
       <c r="H19" s="5">
-        <v>19584.094834979987</v>
+        <v>19584.09483497999</v>
       </c>
       <c r="I19" s="5">
-        <v>19665.177203879983</v>
+        <v>19665.17720387998</v>
       </c>
       <c r="J19" s="5">
-        <v>19584.094834979987</v>
+        <v>19584.09483497999</v>
       </c>
       <c r="K19" s="5">
-        <v>137521085.92662385</v>
+        <v>137521085.9266239</v>
       </c>
       <c r="L19" s="5">
-        <v>195058660.12381402</v>
+        <v>195058660.123814</v>
       </c>
       <c r="M19" s="5">
-        <v>228951356.42850664</v>
+        <v>228951356.4285066</v>
       </c>
       <c r="N19" s="5">
         <v>275042171.8532477</v>
       </c>
       <c r="O19" s="5">
-        <v>192529520.29727346</v>
+        <v>192529520.2972735</v>
       </c>
       <c r="P19" s="5">
-        <v>273082124.17333966</v>
+        <v>273082124.1733397</v>
       </c>
       <c r="Q19" s="5">
-        <v>320531898.99990934</v>
+        <v>320531898.9999093</v>
       </c>
       <c r="R19" s="5">
-        <v>410603210.09996331</v>
+        <v>410603210.0999633</v>
       </c>
       <c r="S19" s="5">
-        <v>458052984.92653298</v>
+        <v>458052984.926533</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="5">
         <v>62</v>
       </c>
       <c r="B20" s="5">
-        <v>12446.684175276001</v>
+        <v>12446.684175276</v>
       </c>
       <c r="C20" s="5">
-        <v>16507.289209788003</v>
+        <v>16507.289209788</v>
       </c>
       <c r="D20" s="5">
-        <v>16597.020364704003</v>
+        <v>16597.020364704</v>
       </c>
       <c r="E20" s="5">
-        <v>12446.684175276001</v>
+        <v>12446.684175276</v>
       </c>
       <c r="F20" s="5">
-        <v>12446.684175276001</v>
+        <v>12446.684175276</v>
       </c>
       <c r="G20" s="5">
-        <v>16507.289209788003</v>
+        <v>16507.289209788</v>
       </c>
       <c r="H20" s="5">
-        <v>16597.020364704003</v>
+        <v>16597.020364704</v>
       </c>
       <c r="I20" s="5">
-        <v>16507.289209788003</v>
+        <v>16507.289209788</v>
       </c>
       <c r="J20" s="5">
-        <v>16597.020364704003</v>
+        <v>16597.020364704</v>
       </c>
       <c r="K20" s="5">
-        <v>90647227.531411454</v>
+        <v>90647227.53141145</v>
       </c>
       <c r="L20" s="5">
-        <v>131664050.48274373</v>
+        <v>131664050.4827437</v>
       </c>
       <c r="M20" s="5">
-        <v>134910436.31445923</v>
+        <v>134910436.3144592</v>
       </c>
       <c r="N20" s="5">
-        <v>181294455.06282291</v>
+        <v>181294455.0628229</v>
       </c>
       <c r="O20" s="5">
-        <v>126906118.54397599</v>
+        <v>126906118.543976</v>
       </c>
       <c r="P20" s="5">
-        <v>184329670.67584115</v>
+        <v>184329670.6758412</v>
       </c>
       <c r="Q20" s="5">
-        <v>188874610.84024286</v>
+        <v>188874610.8402429</v>
       </c>
       <c r="R20" s="5">
         <v>274976898.2072525</v>
       </c>
       <c r="S20" s="5">
-        <v>279521838.37165427</v>
+        <v>279521838.3716543</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="5">
         <v>63</v>
       </c>
       <c r="B21" s="5">
-        <v>1383.8057625599999</v>
+        <v>1383.80576256</v>
       </c>
       <c r="C21" s="5">
-        <v>1825.9749476279999</v>
+        <v>1825.974947628</v>
       </c>
       <c r="D21" s="5">
         <v>1790.298705312</v>
       </c>
       <c r="E21" s="5">
-        <v>1383.8057625599999</v>
+        <v>1383.80576256</v>
       </c>
       <c r="F21" s="5">
-        <v>1383.8057625599999</v>
+        <v>1383.80576256</v>
       </c>
       <c r="G21" s="5">
-        <v>1825.9749476279999</v>
+        <v>1825.974947628</v>
       </c>
       <c r="H21" s="5">
         <v>1790.298705312</v>
       </c>
       <c r="I21" s="5">
-        <v>1825.9749476279999</v>
+        <v>1825.974947628</v>
       </c>
       <c r="J21" s="5">
         <v>1790.298705312</v>
       </c>
       <c r="K21" s="5">
-        <v>11004657.689785324</v>
+        <v>11004657.68978532</v>
       </c>
       <c r="L21" s="5">
-        <v>15779508.302785322</v>
+        <v>15779508.30278532</v>
       </c>
       <c r="M21" s="5">
-        <v>18989340.493842468</v>
+        <v>18989340.49384247</v>
       </c>
       <c r="N21" s="5">
-        <v>22009315.379570648</v>
+        <v>22009315.37957065</v>
       </c>
       <c r="O21" s="5">
-        <v>15406520.765699454</v>
+        <v>15406520.76569945</v>
       </c>
       <c r="P21" s="5">
-        <v>22091311.623899452</v>
+        <v>22091311.62389945</v>
       </c>
       <c r="Q21" s="5">
-        <v>26585076.691379454</v>
+        <v>26585076.69137945</v>
       </c>
       <c r="R21" s="5">
-        <v>33095969.313684769</v>
+        <v>33095969.31368477</v>
       </c>
       <c r="S21" s="5">
-        <v>37589734.381164774</v>
+        <v>37589734.38116477</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="5">
         <v>71</v>
       </c>
       <c r="B22" s="5">
-        <v>15656.464885464004</v>
+        <v>15656.464885464</v>
       </c>
       <c r="C22" s="5">
-        <v>20837.087709048003</v>
+        <v>20837.087709048</v>
       </c>
       <c r="D22" s="5">
         <v>20838.1688073</v>
       </c>
       <c r="E22" s="5">
-        <v>15656.464885464004</v>
+        <v>15656.464885464</v>
       </c>
       <c r="F22" s="5">
-        <v>15656.464885464004</v>
+        <v>15656.464885464</v>
       </c>
       <c r="G22" s="5">
-        <v>20837.087709048003</v>
+        <v>20837.087709048</v>
       </c>
       <c r="H22" s="5">
         <v>20838.1688073</v>
       </c>
       <c r="I22" s="5">
-        <v>20837.087709048003</v>
+        <v>20837.087709048</v>
       </c>
       <c r="J22" s="5">
         <v>20838.1688073</v>
       </c>
       <c r="K22" s="5">
-        <v>181877869.32602343</v>
+        <v>181877869.3260234</v>
       </c>
       <c r="L22" s="5">
         <v>236976058.5337193</v>
       </c>
       <c r="M22" s="5">
-        <v>257635030.72144058</v>
+        <v>257635030.7214406</v>
       </c>
       <c r="N22" s="5">
-        <v>363755738.65204686</v>
+        <v>363755738.6520469</v>
       </c>
       <c r="O22" s="5">
-        <v>254629017.05643278</v>
+        <v>254629017.0564328</v>
       </c>
       <c r="P22" s="5">
-        <v>331766481.94720691</v>
+        <v>331766481.9472069</v>
       </c>
       <c r="Q22" s="5">
-        <v>360689043.01001668</v>
+        <v>360689043.0100167</v>
       </c>
       <c r="R22" s="5">
-        <v>513644351.27323049</v>
+        <v>513644351.2732305</v>
       </c>
       <c r="S22" s="5">
-        <v>542566912.33604038</v>
+        <v>542566912.3360404</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="5">
         <v>72</v>
       </c>
       <c r="B23" s="5">
-        <v>9016.3594216800011</v>
+        <v>9016.359421680001</v>
       </c>
       <c r="C23" s="5">
-        <v>12214.248051095999</v>
+        <v>12214.248051096</v>
       </c>
       <c r="D23" s="5">
         <v>11951.54117586</v>
       </c>
       <c r="E23" s="5">
-        <v>9016.3594216800011</v>
+        <v>9016.359421680001</v>
       </c>
       <c r="F23" s="5">
-        <v>9016.3594216800011</v>
+        <v>9016.359421680001</v>
       </c>
       <c r="G23" s="5">
-        <v>12214.248051095999</v>
+        <v>12214.248051096</v>
       </c>
       <c r="H23" s="5">
         <v>11951.54117586</v>
       </c>
       <c r="I23" s="5">
-        <v>12214.248051095999</v>
+        <v>12214.248051096</v>
       </c>
       <c r="J23" s="5">
         <v>11951.54117586</v>
       </c>
       <c r="K23" s="5">
-        <v>60675522.197636276</v>
+        <v>60675522.19763628</v>
       </c>
       <c r="L23" s="5">
-        <v>94094585.806067705</v>
+        <v>94094585.80606771</v>
       </c>
       <c r="M23" s="5">
-        <v>112650092.87557341</v>
+        <v>112650092.8755734</v>
       </c>
       <c r="N23" s="5">
-        <v>121351044.39527255</v>
+        <v>121351044.3952726</v>
       </c>
       <c r="O23" s="5">
-        <v>84945731.076690793</v>
+        <v>84945731.07669079</v>
       </c>
       <c r="P23" s="5">
         <v>131732420.1284948</v>
       </c>
       <c r="Q23" s="5">
-        <v>157710130.02580276</v>
+        <v>157710130.0258028</v>
       </c>
       <c r="R23" s="5">
-        <v>192407942.32613105</v>
+        <v>192407942.326131</v>
       </c>
       <c r="S23" s="5">
-        <v>218385652.22343907</v>
+        <v>218385652.2234391</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="5">
         <v>73</v>
       </c>
       <c r="B24" s="5">
-        <v>14628.340447812001</v>
+        <v>14628.340447812</v>
       </c>
       <c r="C24" s="5">
-        <v>19686.799168919999</v>
+        <v>19686.79916892</v>
       </c>
       <c r="D24" s="5">
-        <v>19460.849634251997</v>
+        <v>19460.849634252</v>
       </c>
       <c r="E24" s="5">
-        <v>14628.340447812001</v>
+        <v>14628.340447812</v>
       </c>
       <c r="F24" s="5">
-        <v>14628.340447812001</v>
+        <v>14628.340447812</v>
       </c>
       <c r="G24" s="5">
-        <v>19686.799168919999</v>
+        <v>19686.79916892</v>
       </c>
       <c r="H24" s="5">
-        <v>19460.849634251997</v>
+        <v>19460.849634252</v>
       </c>
       <c r="I24" s="5">
-        <v>19686.799168919999</v>
+        <v>19686.79916892</v>
       </c>
       <c r="J24" s="5">
-        <v>19460.849634251997</v>
+        <v>19460.849634252</v>
       </c>
       <c r="K24" s="5">
         <v>108947534.7480609</v>
       </c>
       <c r="L24" s="5">
-        <v>172008301.04237449</v>
+        <v>172008301.0423745</v>
       </c>
       <c r="M24" s="5">
-        <v>210261027.20671806</v>
+        <v>210261027.2067181</v>
       </c>
       <c r="N24" s="5">
-        <v>217895069.49612179</v>
+        <v>217895069.4961218</v>
       </c>
       <c r="O24" s="5">
-        <v>152526548.64728519</v>
+        <v>152526548.6472852</v>
       </c>
       <c r="P24" s="5">
-        <v>240811621.45932418</v>
+        <v>240811621.4593242</v>
       </c>
       <c r="Q24" s="5">
-        <v>294365438.08940518</v>
+        <v>294365438.0894052</v>
       </c>
       <c r="R24" s="5">
-        <v>349759156.20738506</v>
+        <v>349759156.2073851</v>
       </c>
       <c r="S24" s="5">
-        <v>403312972.83746606</v>
+        <v>403312972.8374661</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="5">
         <v>81</v>
       </c>
       <c r="B25" s="5">
-        <v>1831.3804388880003</v>
+        <v>1831.380438888</v>
       </c>
       <c r="C25" s="5">
-        <v>2538.4186956960002</v>
+        <v>2538.418695696</v>
       </c>
       <c r="D25" s="5">
-        <v>2593.5547065480005</v>
+        <v>2593.554706548</v>
       </c>
       <c r="E25" s="5">
-        <v>1831.3804388880003</v>
+        <v>1831.380438888</v>
       </c>
       <c r="F25" s="5">
-        <v>1831.3804388880003</v>
+        <v>1831.380438888</v>
       </c>
       <c r="G25" s="5">
-        <v>2538.4186956960002</v>
+        <v>2538.418695696</v>
       </c>
       <c r="H25" s="5">
-        <v>2593.5547065480005</v>
+        <v>2593.554706548</v>
       </c>
       <c r="I25" s="5">
-        <v>2538.4186956960002</v>
+        <v>2538.418695696</v>
       </c>
       <c r="J25" s="5">
-        <v>2593.5547065480005</v>
+        <v>2593.554706548</v>
       </c>
       <c r="K25" s="5">
-        <v>6924557.1561340913</v>
+        <v>6924557.156134091</v>
       </c>
       <c r="L25" s="5">
         <v>12080044.44535909</v>
       </c>
       <c r="M25" s="5">
-        <v>13497444.861934092</v>
+        <v>13497444.86193409</v>
       </c>
       <c r="N25" s="5">
-        <v>13849114.312268183</v>
+        <v>13849114.31226818</v>
       </c>
       <c r="O25" s="5">
-        <v>9694380.0185877271</v>
+        <v>9694380.018587727</v>
       </c>
       <c r="P25" s="5">
-        <v>16912062.223502725</v>
+        <v>16912062.22350273</v>
       </c>
       <c r="Q25" s="5">
-        <v>18896422.806707725</v>
+        <v>18896422.80670772</v>
       </c>
       <c r="R25" s="5">
-        <v>23836619.379636817</v>
+        <v>23836619.37963682</v>
       </c>
       <c r="S25" s="5">
-        <v>25820979.962841816</v>
+        <v>25820979.96284182</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="5">
         <v>82</v>
       </c>
       <c r="B26" s="5">
-        <v>3610.8681616799995</v>
+        <v>3610.86816168</v>
       </c>
       <c r="C26" s="5">
-        <v>5271.4350767519991</v>
+        <v>5271.435076751999</v>
       </c>
       <c r="D26" s="5">
-        <v>5175.2173323239995</v>
+        <v>5175.217332323999</v>
       </c>
       <c r="E26" s="5">
-        <v>3610.8681616799995</v>
+        <v>3610.86816168</v>
       </c>
       <c r="F26" s="5">
-        <v>3610.8681616799995</v>
+        <v>3610.86816168</v>
       </c>
       <c r="G26" s="5">
-        <v>5271.4350767519991</v>
+        <v>5271.435076751999</v>
       </c>
       <c r="H26" s="5">
-        <v>5175.2173323239995</v>
+        <v>5175.217332323999</v>
       </c>
       <c r="I26" s="5">
-        <v>5271.4350767519991</v>
+        <v>5271.435076751999</v>
       </c>
       <c r="J26" s="5">
-        <v>5175.2173323239995</v>
+        <v>5175.217332323999</v>
       </c>
       <c r="K26" s="5">
-        <v>29528471.495993197</v>
+        <v>29528471.4959932</v>
       </c>
       <c r="L26" s="5">
-        <v>44453976.680787474</v>
+        <v>44453976.68078747</v>
       </c>
       <c r="M26" s="5">
-        <v>49732095.690383196</v>
+        <v>49732095.6903832</v>
       </c>
       <c r="N26" s="5">
-        <v>59056942.991986394</v>
+        <v>59056942.99198639</v>
       </c>
       <c r="O26" s="5">
-        <v>41339860.094390474</v>
+        <v>41339860.09439047</v>
       </c>
       <c r="P26" s="5">
-        <v>62235567.353102468</v>
+        <v>62235567.35310247</v>
       </c>
       <c r="Q26" s="5">
-        <v>69624933.966536477</v>
+        <v>69624933.96653648</v>
       </c>
       <c r="R26" s="5">
-        <v>91764038.849095672</v>
+        <v>91764038.84909567</v>
       </c>
       <c r="S26" s="5">
-        <v>99153405.462529674</v>
+        <v>99153405.46252967</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="5">
         <v>83</v>
       </c>
       <c r="B27" s="5">
-        <v>3579.5163123719994</v>
+        <v>3579.516312371999</v>
       </c>
       <c r="C27" s="5">
         <v>4885.483000788</v>
@@ -17267,10 +17267,10 @@
         <v>4903.861671071998</v>
       </c>
       <c r="E27" s="5">
-        <v>3579.5163123719994</v>
+        <v>3579.516312371999</v>
       </c>
       <c r="F27" s="5">
-        <v>3579.5163123719994</v>
+        <v>3579.516312371999</v>
       </c>
       <c r="G27" s="5">
         <v>4885.483000788</v>
@@ -17285,506 +17285,506 @@
         <v>4903.861671071998</v>
       </c>
       <c r="K27" s="5">
-        <v>25808949.741099834</v>
+        <v>25808949.74109983</v>
       </c>
       <c r="L27" s="5">
-        <v>38106866.317698658</v>
+        <v>38106866.31769866</v>
       </c>
       <c r="M27" s="5">
-        <v>46366310.207559839</v>
+        <v>46366310.20755984</v>
       </c>
       <c r="N27" s="5">
-        <v>51617899.482199669</v>
+        <v>51617899.48219967</v>
       </c>
       <c r="O27" s="5">
-        <v>36132529.637539767</v>
+        <v>36132529.63753977</v>
       </c>
       <c r="P27" s="5">
-        <v>53349612.844778121</v>
+        <v>53349612.84477812</v>
       </c>
       <c r="Q27" s="5">
-        <v>64912834.290583767</v>
+        <v>64912834.29058377</v>
       </c>
       <c r="R27" s="5">
         <v>79158562.58587794</v>
       </c>
       <c r="S27" s="5">
-        <v>90721784.031683594</v>
+        <v>90721784.03168359</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="5">
         <v>91</v>
       </c>
       <c r="B28" s="5">
-        <v>9164.4698822040009</v>
+        <v>9164.469882204001</v>
       </c>
       <c r="C28" s="5">
-        <v>12363.439609871999</v>
+        <v>12363.439609872</v>
       </c>
       <c r="D28" s="5">
-        <v>12154.787647235999</v>
+        <v>12154.787647236</v>
       </c>
       <c r="E28" s="5">
-        <v>9164.4698822040009</v>
+        <v>9164.469882204001</v>
       </c>
       <c r="F28" s="5">
-        <v>9164.4698822040009</v>
+        <v>9164.469882204001</v>
       </c>
       <c r="G28" s="5">
-        <v>12363.439609871999</v>
+        <v>12363.439609872</v>
       </c>
       <c r="H28" s="5">
-        <v>12154.787647235999</v>
+        <v>12154.787647236</v>
       </c>
       <c r="I28" s="5">
-        <v>12363.439609871999</v>
+        <v>12363.439609872</v>
       </c>
       <c r="J28" s="5">
-        <v>12154.787647235999</v>
+        <v>12154.787647236</v>
       </c>
       <c r="K28" s="5">
-        <v>76954042.615969568</v>
+        <v>76954042.61596957</v>
       </c>
       <c r="L28" s="5">
-        <v>115347280.20254385</v>
+        <v>115347280.2025439</v>
       </c>
       <c r="M28" s="5">
-        <v>126695394.79085423</v>
+        <v>126695394.7908542</v>
       </c>
       <c r="N28" s="5">
-        <v>153908085.23193914</v>
+        <v>153908085.2319391</v>
       </c>
       <c r="O28" s="5">
         <v>107735659.6623574</v>
       </c>
       <c r="P28" s="5">
-        <v>161486192.28356138</v>
+        <v>161486192.2835614</v>
       </c>
       <c r="Q28" s="5">
-        <v>177373552.70719594</v>
+        <v>177373552.7071959</v>
       </c>
       <c r="R28" s="5">
-        <v>238440234.89953092</v>
+        <v>238440234.8995309</v>
       </c>
       <c r="S28" s="5">
-        <v>254327595.32316551</v>
+        <v>254327595.3231655</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="5">
         <v>92</v>
       </c>
       <c r="B29" s="5">
-        <v>11507.209794287997</v>
+        <v>11507.209794288</v>
       </c>
       <c r="C29" s="5">
-        <v>15313.756739579994</v>
+        <v>15313.75673957999</v>
       </c>
       <c r="D29" s="5">
-        <v>15302.945757059995</v>
+        <v>15302.94575706</v>
       </c>
       <c r="E29" s="5">
-        <v>11507.209794287997</v>
+        <v>11507.209794288</v>
       </c>
       <c r="F29" s="5">
-        <v>11507.209794287997</v>
+        <v>11507.209794288</v>
       </c>
       <c r="G29" s="5">
-        <v>15313.756739579994</v>
+        <v>15313.75673957999</v>
       </c>
       <c r="H29" s="5">
-        <v>15302.945757059995</v>
+        <v>15302.94575706</v>
       </c>
       <c r="I29" s="5">
-        <v>15313.756739579994</v>
+        <v>15313.75673957999</v>
       </c>
       <c r="J29" s="5">
-        <v>15302.945757059995</v>
+        <v>15302.94575706</v>
       </c>
       <c r="K29" s="5">
-        <v>97961621.357466295</v>
+        <v>97961621.3574663</v>
       </c>
       <c r="L29" s="5">
-        <v>140838160.58486831</v>
+        <v>140838160.5848683</v>
       </c>
       <c r="M29" s="5">
-        <v>161053826.56785193</v>
+        <v>161053826.5678519</v>
       </c>
       <c r="N29" s="5">
-        <v>195923242.71493259</v>
+        <v>195923242.7149326</v>
       </c>
       <c r="O29" s="5">
-        <v>137146269.90045279</v>
+        <v>137146269.9004528</v>
       </c>
       <c r="P29" s="5">
-        <v>197173424.81881562</v>
+        <v>197173424.8188156</v>
       </c>
       <c r="Q29" s="5">
-        <v>225475357.19499269</v>
+        <v>225475357.1949927</v>
       </c>
       <c r="R29" s="5">
-        <v>295135046.17628193</v>
+        <v>295135046.1762819</v>
       </c>
       <c r="S29" s="5">
         <v>323436978.552459</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="5">
         <v>93</v>
       </c>
       <c r="B30" s="5">
-        <v>1596.7821182039997</v>
+        <v>1596.782118204</v>
       </c>
       <c r="C30" s="5">
-        <v>1969.7610151439999</v>
+        <v>1969.761015144</v>
       </c>
       <c r="D30" s="5">
-        <v>1905.9762182760001</v>
+        <v>1905.976218276</v>
       </c>
       <c r="E30" s="5">
-        <v>1596.7821182039997</v>
+        <v>1596.782118204</v>
       </c>
       <c r="F30" s="5">
-        <v>1596.7821182039997</v>
+        <v>1596.782118204</v>
       </c>
       <c r="G30" s="5">
-        <v>1969.7610151439999</v>
+        <v>1969.761015144</v>
       </c>
       <c r="H30" s="5">
-        <v>1905.9762182760001</v>
+        <v>1905.976218276</v>
       </c>
       <c r="I30" s="5">
-        <v>1969.7610151439999</v>
+        <v>1969.761015144</v>
       </c>
       <c r="J30" s="5">
-        <v>1905.9762182760001</v>
+        <v>1905.976218276</v>
       </c>
       <c r="K30" s="5">
-        <v>14128190.708078569</v>
+        <v>14128190.70807857</v>
       </c>
       <c r="L30" s="5">
-        <v>18790426.919828571</v>
+        <v>18790426.91982857</v>
       </c>
       <c r="M30" s="5">
-        <v>19552987.294007141</v>
+        <v>19552987.29400714</v>
       </c>
       <c r="N30" s="5">
-        <v>28256381.416157138</v>
+        <v>28256381.41615714</v>
       </c>
       <c r="O30" s="5">
         <v>19779466.99131</v>
       </c>
       <c r="P30" s="5">
-        <v>26306597.687760003</v>
+        <v>26306597.68776</v>
       </c>
       <c r="Q30" s="5">
-        <v>27374182.211610001</v>
+        <v>27374182.21161</v>
       </c>
       <c r="R30" s="5">
-        <v>40434788.395838574</v>
+        <v>40434788.39583857</v>
       </c>
       <c r="S30" s="5">
-        <v>41502372.919688568</v>
+        <v>41502372.91968857</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="5">
         <v>101</v>
       </c>
       <c r="B31" s="5">
-        <v>9832.5886019400004</v>
+        <v>9832.58860194</v>
       </c>
       <c r="C31" s="5">
-        <v>12934.259486927998</v>
+        <v>12934.259486928</v>
       </c>
       <c r="D31" s="5">
         <v>13087.775438712</v>
       </c>
       <c r="E31" s="5">
-        <v>9832.5886019400004</v>
+        <v>9832.58860194</v>
       </c>
       <c r="F31" s="5">
-        <v>9832.5886019400004</v>
+        <v>9832.58860194</v>
       </c>
       <c r="G31" s="5">
-        <v>12934.259486927998</v>
+        <v>12934.259486928</v>
       </c>
       <c r="H31" s="5">
         <v>13087.775438712</v>
       </c>
       <c r="I31" s="5">
-        <v>12934.259486927998</v>
+        <v>12934.259486928</v>
       </c>
       <c r="J31" s="5">
         <v>13087.775438712</v>
       </c>
       <c r="K31" s="5">
-        <v>73154472.881135181</v>
+        <v>73154472.88113518</v>
       </c>
       <c r="L31" s="5">
-        <v>102546960.30955803</v>
+        <v>102546960.309558</v>
       </c>
       <c r="M31" s="5">
-        <v>122335602.49787661</v>
+        <v>122335602.4978766</v>
       </c>
       <c r="N31" s="5">
-        <v>146308945.76227036</v>
+        <v>146308945.7622704</v>
       </c>
       <c r="O31" s="5">
-        <v>102416262.03358929</v>
+        <v>102416262.0335893</v>
       </c>
       <c r="P31" s="5">
-        <v>143565744.43338126</v>
+        <v>143565744.4333813</v>
       </c>
       <c r="Q31" s="5">
-        <v>171269843.49702722</v>
+        <v>171269843.4970272</v>
       </c>
       <c r="R31" s="5">
-        <v>216720217.31451645</v>
+        <v>216720217.3145165</v>
       </c>
       <c r="S31" s="5">
-        <v>244424316.37816241</v>
+        <v>244424316.3781624</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="5">
         <v>102</v>
       </c>
       <c r="B32" s="5">
-        <v>16852.159552175995</v>
+        <v>16852.159552176</v>
       </c>
       <c r="C32" s="5">
-        <v>22498.735722371985</v>
+        <v>22498.73572237198</v>
       </c>
       <c r="D32" s="5">
-        <v>22510.627803143983</v>
+        <v>22510.62780314398</v>
       </c>
       <c r="E32" s="5">
-        <v>16852.159552175995</v>
+        <v>16852.159552176</v>
       </c>
       <c r="F32" s="5">
-        <v>16852.159552175995</v>
+        <v>16852.159552176</v>
       </c>
       <c r="G32" s="5">
-        <v>22498.735722371985</v>
+        <v>22498.73572237198</v>
       </c>
       <c r="H32" s="5">
-        <v>22510.627803143983</v>
+        <v>22510.62780314398</v>
       </c>
       <c r="I32" s="5">
-        <v>22498.735722371985</v>
+        <v>22498.73572237198</v>
       </c>
       <c r="J32" s="5">
-        <v>22510.627803143983</v>
+        <v>22510.62780314398</v>
       </c>
       <c r="K32" s="5">
-        <v>210482531.43921459</v>
+        <v>210482531.4392146</v>
       </c>
       <c r="L32" s="5">
-        <v>290744759.89400488</v>
+        <v>290744759.8940049</v>
       </c>
       <c r="M32" s="5">
-        <v>343625226.90024805</v>
+        <v>343625226.9002481</v>
       </c>
       <c r="N32" s="5">
-        <v>420965062.87842917</v>
+        <v>420965062.8784292</v>
       </c>
       <c r="O32" s="5">
-        <v>294675544.01490051</v>
+        <v>294675544.0149005</v>
       </c>
       <c r="P32" s="5">
-        <v>407042663.85160702</v>
+        <v>407042663.851607</v>
       </c>
       <c r="Q32" s="5">
-        <v>481075317.66034734</v>
+        <v>481075317.6603473</v>
       </c>
       <c r="R32" s="5">
-        <v>617525195.29082179</v>
+        <v>617525195.2908218</v>
       </c>
       <c r="S32" s="5">
-        <v>691557849.09956181</v>
+        <v>691557849.0995618</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="5">
         <v>103</v>
       </c>
       <c r="B33" s="5">
-        <v>6978.4892166599984</v>
+        <v>6978.489216659998</v>
       </c>
       <c r="C33" s="5">
         <v>9481.231670039997</v>
       </c>
       <c r="D33" s="5">
-        <v>9260.6876266319978</v>
+        <v>9260.687626631998</v>
       </c>
       <c r="E33" s="5">
-        <v>6978.4892166599984</v>
+        <v>6978.489216659998</v>
       </c>
       <c r="F33" s="5">
-        <v>6978.4892166599984</v>
+        <v>6978.489216659998</v>
       </c>
       <c r="G33" s="5">
         <v>9481.231670039997</v>
       </c>
       <c r="H33" s="5">
-        <v>9260.6876266319978</v>
+        <v>9260.687626631998</v>
       </c>
       <c r="I33" s="5">
         <v>9481.231670039997</v>
       </c>
       <c r="J33" s="5">
-        <v>9260.6876266319978</v>
+        <v>9260.687626631998</v>
       </c>
       <c r="K33" s="5">
-        <v>66397850.620760962</v>
+        <v>66397850.62076096</v>
       </c>
       <c r="L33" s="5">
-        <v>99583319.785456672</v>
+        <v>99583319.78545667</v>
       </c>
       <c r="M33" s="5">
-        <v>110193913.02231809</v>
+        <v>110193913.0223181</v>
       </c>
       <c r="N33" s="5">
-        <v>132795701.24152192</v>
+        <v>132795701.2415219</v>
       </c>
       <c r="O33" s="5">
-        <v>92956990.869065344</v>
+        <v>92956990.86906534</v>
       </c>
       <c r="P33" s="5">
-        <v>139416647.69963935</v>
+        <v>139416647.6996394</v>
       </c>
       <c r="Q33" s="5">
-        <v>154271478.23124537</v>
+        <v>154271478.2312454</v>
       </c>
       <c r="R33" s="5">
-        <v>205814498.32040027</v>
+        <v>205814498.3204003</v>
       </c>
       <c r="S33" s="5">
-        <v>220669328.85200635</v>
+        <v>220669328.8520063</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="5">
         <v>111</v>
       </c>
       <c r="B34" s="5">
-        <v>3767.6274082200002</v>
+        <v>3767.62740822</v>
       </c>
       <c r="C34" s="5">
-        <v>5152.5142690319999</v>
+        <v>5152.514269032</v>
       </c>
       <c r="D34" s="5">
-        <v>5002.2416120039998</v>
+        <v>5002.241612004</v>
       </c>
       <c r="E34" s="5">
-        <v>3767.6274082200002</v>
+        <v>3767.62740822</v>
       </c>
       <c r="F34" s="5">
-        <v>3767.6274082200002</v>
+        <v>3767.62740822</v>
       </c>
       <c r="G34" s="5">
-        <v>5152.5142690319999</v>
+        <v>5152.514269032</v>
       </c>
       <c r="H34" s="5">
-        <v>5002.2416120039998</v>
+        <v>5002.241612004</v>
       </c>
       <c r="I34" s="5">
-        <v>5152.5142690319999</v>
+        <v>5152.514269032</v>
       </c>
       <c r="J34" s="5">
-        <v>5002.2416120039998</v>
+        <v>5002.241612004</v>
       </c>
       <c r="K34" s="5">
-        <v>40908807.884377114</v>
+        <v>40908807.88437711</v>
       </c>
       <c r="L34" s="5">
-        <v>54428640.837443478</v>
+        <v>54428640.83744348</v>
       </c>
       <c r="M34" s="5">
-        <v>59827126.379167117</v>
+        <v>59827126.37916712</v>
       </c>
       <c r="N34" s="5">
-        <v>81817615.768754229</v>
+        <v>81817615.76875423</v>
       </c>
       <c r="O34" s="5">
-        <v>57272331.038127959</v>
+        <v>57272331.03812796</v>
       </c>
       <c r="P34" s="5">
-        <v>76200097.172420874</v>
+        <v>76200097.17242087</v>
       </c>
       <c r="Q34" s="5">
-        <v>83757976.930833966</v>
+        <v>83757976.93083397</v>
       </c>
       <c r="R34" s="5">
-        <v>117108905.05679797</v>
+        <v>117108905.056798</v>
       </c>
       <c r="S34" s="5">
-        <v>124666784.81521107</v>
+        <v>124666784.8152111</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="5">
         <v>112</v>
       </c>
       <c r="B35" s="5">
-        <v>2363.2807788719997</v>
+        <v>2363.280778872</v>
       </c>
       <c r="C35" s="5">
-        <v>3129.7794395399997</v>
+        <v>3129.77943954</v>
       </c>
       <c r="D35" s="5">
-        <v>3032.4805968599994</v>
+        <v>3032.480596859999</v>
       </c>
       <c r="E35" s="5">
-        <v>2363.2807788719997</v>
+        <v>2363.280778872</v>
       </c>
       <c r="F35" s="5">
-        <v>2363.2807788719997</v>
+        <v>2363.280778872</v>
       </c>
       <c r="G35" s="5">
-        <v>3129.7794395399997</v>
+        <v>3129.77943954</v>
       </c>
       <c r="H35" s="5">
-        <v>3032.4805968599994</v>
+        <v>3032.480596859999</v>
       </c>
       <c r="I35" s="5">
-        <v>3129.7794395399997</v>
+        <v>3129.77943954</v>
       </c>
       <c r="J35" s="5">
-        <v>3032.4805968599994</v>
+        <v>3032.480596859999</v>
       </c>
       <c r="K35" s="5">
-        <v>12023972.150792992</v>
+        <v>12023972.15079299</v>
       </c>
       <c r="L35" s="5">
-        <v>20507161.371050134</v>
+        <v>20507161.37105013</v>
       </c>
       <c r="M35" s="5">
         <v>19611179.74434299</v>
       </c>
       <c r="N35" s="5">
-        <v>24047944.301585983</v>
+        <v>24047944.30158598</v>
       </c>
       <c r="O35" s="5">
         <v>16833561.01111019</v>
       </c>
       <c r="P35" s="5">
-        <v>28710025.919470187</v>
+        <v>28710025.91947019</v>
       </c>
       <c r="Q35" s="5">
-        <v>27455651.642080188</v>
+        <v>27455651.64208019</v>
       </c>
       <c r="R35" s="5">
-        <v>40733998.070263177</v>
+        <v>40733998.07026318</v>
       </c>
       <c r="S35" s="5">
-        <v>39479623.792873181</v>
+        <v>39479623.79287318</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="5">
         <v>113</v>
       </c>
@@ -17825,172 +17825,172 @@
         <v>2454093.03204</v>
       </c>
       <c r="N36" s="5">
-        <v>4908186.0640799999</v>
+        <v>4908186.06408</v>
       </c>
       <c r="O36" s="5">
-        <v>3435730.2448559999</v>
+        <v>3435730.244856</v>
       </c>
       <c r="P36" s="5">
-        <v>3435730.2448559999</v>
+        <v>3435730.244856</v>
       </c>
       <c r="Q36" s="5">
-        <v>3435730.2448559999</v>
+        <v>3435730.244856</v>
       </c>
       <c r="R36" s="5">
-        <v>5889823.2768959999</v>
+        <v>5889823.276896</v>
       </c>
       <c r="S36" s="5">
-        <v>5889823.2768959999</v>
+        <v>5889823.276896</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="5">
         <v>121</v>
       </c>
       <c r="B37" s="5">
-        <v>4433.5839314519999</v>
+        <v>4433.583931452</v>
       </c>
       <c r="C37" s="5">
-        <v>5882.2555891319998</v>
+        <v>5882.255589132</v>
       </c>
       <c r="D37" s="5">
-        <v>5790.3622377119991</v>
+        <v>5790.362237711999</v>
       </c>
       <c r="E37" s="5">
-        <v>4433.5839314519999</v>
+        <v>4433.583931452</v>
       </c>
       <c r="F37" s="5">
-        <v>4433.5839314519999</v>
+        <v>4433.583931452</v>
       </c>
       <c r="G37" s="5">
-        <v>5882.2555891319998</v>
+        <v>5882.255589132</v>
       </c>
       <c r="H37" s="5">
-        <v>5790.3622377119991</v>
+        <v>5790.362237711999</v>
       </c>
       <c r="I37" s="5">
-        <v>5882.2555891319998</v>
+        <v>5882.255589132</v>
       </c>
       <c r="J37" s="5">
-        <v>5790.3622377119991</v>
+        <v>5790.362237711999</v>
       </c>
       <c r="K37" s="5">
-        <v>28047080.668657474</v>
+        <v>28047080.66865747</v>
       </c>
       <c r="L37" s="5">
-        <v>37429921.856999278</v>
+        <v>37429921.85699928</v>
       </c>
       <c r="M37" s="5">
-        <v>51570948.818167865</v>
+        <v>51570948.81816787</v>
       </c>
       <c r="N37" s="5">
-        <v>56094161.337314948</v>
+        <v>56094161.33731495</v>
       </c>
       <c r="O37" s="5">
         <v>39265912.93612045</v>
       </c>
       <c r="P37" s="5">
-        <v>52401890.599798985</v>
+        <v>52401890.59979898</v>
       </c>
       <c r="Q37" s="5">
-        <v>72199328.345434994</v>
+        <v>72199328.34543499</v>
       </c>
       <c r="R37" s="5">
-        <v>80448971.268456444</v>
+        <v>80448971.26845644</v>
       </c>
       <c r="S37" s="5">
-        <v>100246409.01409246</v>
+        <v>100246409.0140925</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="5">
         <v>122</v>
       </c>
       <c r="B38" s="5">
-        <v>1139.4775576080001</v>
+        <v>1139.477557608</v>
       </c>
       <c r="C38" s="5">
-        <v>1595.7010199520003</v>
+        <v>1595.701019952</v>
       </c>
       <c r="D38" s="5">
-        <v>1608.6741989760003</v>
+        <v>1608.674198976</v>
       </c>
       <c r="E38" s="5">
-        <v>1139.4775576080001</v>
+        <v>1139.477557608</v>
       </c>
       <c r="F38" s="5">
-        <v>1139.4775576080001</v>
+        <v>1139.477557608</v>
       </c>
       <c r="G38" s="5">
-        <v>1595.7010199520003</v>
+        <v>1595.701019952</v>
       </c>
       <c r="H38" s="5">
-        <v>1608.6741989760003</v>
+        <v>1608.674198976</v>
       </c>
       <c r="I38" s="5">
-        <v>1595.7010199520003</v>
+        <v>1595.701019952</v>
       </c>
       <c r="J38" s="5">
-        <v>1608.6741989760003</v>
+        <v>1608.674198976</v>
       </c>
       <c r="K38" s="5">
-        <v>7697254.7455752101</v>
+        <v>7697254.74557521</v>
       </c>
       <c r="L38" s="5">
-        <v>10102404.579576297</v>
+        <v>10102404.5795763</v>
       </c>
       <c r="M38" s="5">
-        <v>11649726.452751296</v>
+        <v>11649726.4527513</v>
       </c>
       <c r="N38" s="5">
         <v>15394509.49115042</v>
       </c>
       <c r="O38" s="5">
-        <v>10776156.643805293</v>
+        <v>10776156.64380529</v>
       </c>
       <c r="P38" s="5">
-        <v>14143366.411406815</v>
+        <v>14143366.41140682</v>
       </c>
       <c r="Q38" s="5">
-        <v>16309617.033851815</v>
+        <v>16309617.03385182</v>
       </c>
       <c r="R38" s="5">
-        <v>21840621.156982031</v>
+        <v>21840621.15698203</v>
       </c>
       <c r="S38" s="5">
-        <v>24006871.779427029</v>
+        <v>24006871.77942703</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="5">
         <v>123</v>
       </c>
       <c r="B39" s="5">
-        <v>6003.3385933560012</v>
+        <v>6003.338593356001</v>
       </c>
       <c r="C39" s="5">
-        <v>7949.3154469560022</v>
+        <v>7949.315446956002</v>
       </c>
       <c r="D39" s="5">
-        <v>7898.5038291120027</v>
+        <v>7898.503829112003</v>
       </c>
       <c r="E39" s="5">
-        <v>6003.3385933560012</v>
+        <v>6003.338593356001</v>
       </c>
       <c r="F39" s="5">
-        <v>6003.3385933560012</v>
+        <v>6003.338593356001</v>
       </c>
       <c r="G39" s="5">
-        <v>7949.3154469560022</v>
+        <v>7949.315446956002</v>
       </c>
       <c r="H39" s="5">
-        <v>7898.5038291120027</v>
+        <v>7898.503829112003</v>
       </c>
       <c r="I39" s="5">
-        <v>7949.3154469560022</v>
+        <v>7949.315446956002</v>
       </c>
       <c r="J39" s="5">
-        <v>7898.5038291120027</v>
+        <v>7898.503829112003</v>
       </c>
       <c r="K39" s="5">
         <v>49620033.16714941</v>
@@ -17999,175 +17999,175 @@
         <v>72773554.06414941</v>
       </c>
       <c r="M39" s="5">
-        <v>85476237.271414012</v>
+        <v>85476237.27141401</v>
       </c>
       <c r="N39" s="5">
-        <v>99240066.334298819</v>
+        <v>99240066.33429882</v>
       </c>
       <c r="O39" s="5">
-        <v>69468046.434009165</v>
+        <v>69468046.43400916</v>
       </c>
       <c r="P39" s="5">
-        <v>101882975.68980917</v>
+        <v>101882975.6898092</v>
       </c>
       <c r="Q39" s="5">
-        <v>119666732.17997961</v>
+        <v>119666732.1799796</v>
       </c>
       <c r="R39" s="5">
         <v>151503008.8569586</v>
       </c>
       <c r="S39" s="5">
-        <v>169286765.34712902</v>
+        <v>169286765.347129</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="5">
         <v>124</v>
       </c>
       <c r="B40" s="5">
-        <v>3421.6759675799995</v>
+        <v>3421.675967579999</v>
       </c>
       <c r="C40" s="5">
-        <v>4683.3176276639988</v>
+        <v>4683.317627663999</v>
       </c>
       <c r="D40" s="5">
-        <v>4637.9115010799997</v>
+        <v>4637.91150108</v>
       </c>
       <c r="E40" s="5">
-        <v>3421.6759675799995</v>
+        <v>3421.675967579999</v>
       </c>
       <c r="F40" s="5">
-        <v>3421.6759675799995</v>
+        <v>3421.675967579999</v>
       </c>
       <c r="G40" s="5">
-        <v>4683.3176276639988</v>
+        <v>4683.317627663999</v>
       </c>
       <c r="H40" s="5">
-        <v>4637.9115010799997</v>
+        <v>4637.91150108</v>
       </c>
       <c r="I40" s="5">
-        <v>4683.3176276639988</v>
+        <v>4683.317627663999</v>
       </c>
       <c r="J40" s="5">
-        <v>4637.9115010799997</v>
+        <v>4637.91150108</v>
       </c>
       <c r="K40" s="5">
-        <v>30512950.545013245</v>
+        <v>30512950.54501325</v>
       </c>
       <c r="L40" s="5">
-        <v>46888500.210664667</v>
+        <v>46888500.21066467</v>
       </c>
       <c r="M40" s="5">
-        <v>50382008.508624882</v>
+        <v>50382008.50862488</v>
       </c>
       <c r="N40" s="5">
         <v>61025901.09002649</v>
       </c>
       <c r="O40" s="5">
-        <v>42718130.763018548</v>
+        <v>42718130.76301855</v>
       </c>
       <c r="P40" s="5">
-        <v>65643900.294930547</v>
+        <v>65643900.29493055</v>
       </c>
       <c r="Q40" s="5">
-        <v>70534811.912074849</v>
+        <v>70534811.91207485</v>
       </c>
       <c r="R40" s="5">
-        <v>96156850.839943811</v>
+        <v>96156850.83994381</v>
       </c>
       <c r="S40" s="5">
-        <v>101047762.45708811</v>
+        <v>101047762.4570881</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="5">
         <v>131</v>
       </c>
       <c r="B41" s="5">
-        <v>2789.2334901600002</v>
+        <v>2789.23349016</v>
       </c>
       <c r="C41" s="5">
-        <v>3706.0048078560012</v>
+        <v>3706.004807856001</v>
       </c>
       <c r="D41" s="5">
-        <v>3635.7334214760008</v>
+        <v>3635.733421476001</v>
       </c>
       <c r="E41" s="5">
-        <v>2789.2334901600002</v>
+        <v>2789.23349016</v>
       </c>
       <c r="F41" s="5">
-        <v>2789.2334901600002</v>
+        <v>2789.23349016</v>
       </c>
       <c r="G41" s="5">
-        <v>3706.0048078560012</v>
+        <v>3706.004807856001</v>
       </c>
       <c r="H41" s="5">
-        <v>3635.7334214760008</v>
+        <v>3635.733421476001</v>
       </c>
       <c r="I41" s="5">
-        <v>3706.0048078560012</v>
+        <v>3706.004807856001</v>
       </c>
       <c r="J41" s="5">
-        <v>3635.7334214760008</v>
+        <v>3635.733421476001</v>
       </c>
       <c r="K41" s="5">
-        <v>31513904.232962068</v>
+        <v>31513904.23296207</v>
       </c>
       <c r="L41" s="5">
-        <v>44354703.322013885</v>
+        <v>44354703.32201388</v>
       </c>
       <c r="M41" s="5">
-        <v>53308072.780244932</v>
+        <v>53308072.78024493</v>
       </c>
       <c r="N41" s="5">
-        <v>63027808.465924136</v>
+        <v>63027808.46592414</v>
       </c>
       <c r="O41" s="5">
         <v>44119465.92614688</v>
       </c>
       <c r="P41" s="5">
-        <v>62096584.650819413</v>
+        <v>62096584.65081941</v>
       </c>
       <c r="Q41" s="5">
         <v>74631301.89234288</v>
       </c>
       <c r="R41" s="5">
-        <v>93610488.883781493</v>
+        <v>93610488.88378149</v>
       </c>
       <c r="S41" s="5">
-        <v>106145206.12530497</v>
+        <v>106145206.125305</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" s="5">
         <v>132</v>
       </c>
       <c r="B42" s="5">
-        <v>2646.5285208960004</v>
+        <v>2646.528520896</v>
       </c>
       <c r="C42" s="5">
-        <v>2646.5285208960004</v>
+        <v>2646.528520896</v>
       </c>
       <c r="D42" s="5">
-        <v>2646.5285208960004</v>
+        <v>2646.528520896</v>
       </c>
       <c r="E42" s="5">
-        <v>2646.5285208960004</v>
+        <v>2646.528520896</v>
       </c>
       <c r="F42" s="5">
-        <v>2646.5285208960004</v>
+        <v>2646.528520896</v>
       </c>
       <c r="G42" s="5">
-        <v>2646.5285208960004</v>
+        <v>2646.528520896</v>
       </c>
       <c r="H42" s="5">
-        <v>2646.5285208960004</v>
+        <v>2646.528520896</v>
       </c>
       <c r="I42" s="5">
-        <v>2646.5285208960004</v>
+        <v>2646.528520896</v>
       </c>
       <c r="J42" s="5">
-        <v>2646.5285208960004</v>
+        <v>2646.528520896</v>
       </c>
       <c r="K42" s="5">
         <v>48118021.0161357</v>
@@ -18182,81 +18182,81 @@
         <v>96236042.0322714</v>
       </c>
       <c r="O42" s="5">
-        <v>67365229.422589973</v>
+        <v>67365229.42258997</v>
       </c>
       <c r="P42" s="5">
-        <v>67365229.422589973</v>
+        <v>67365229.42258997</v>
       </c>
       <c r="Q42" s="5">
-        <v>67365229.422589973</v>
+        <v>67365229.42258997</v>
       </c>
       <c r="R42" s="5">
-        <v>115483250.43872567</v>
+        <v>115483250.4387257</v>
       </c>
       <c r="S42" s="5">
-        <v>115483250.43872567</v>
+        <v>115483250.4387257</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43" s="5">
         <v>133</v>
       </c>
       <c r="B43" s="5">
-        <v>2851.9371887759989</v>
+        <v>2851.937188775999</v>
       </c>
       <c r="C43" s="5">
-        <v>3841.1420893559975</v>
+        <v>3841.142089355998</v>
       </c>
       <c r="D43" s="5">
-        <v>3828.1689103319977</v>
+        <v>3828.168910331998</v>
       </c>
       <c r="E43" s="5">
-        <v>2851.9371887759989</v>
+        <v>2851.937188775999</v>
       </c>
       <c r="F43" s="5">
-        <v>2851.9371887759989</v>
+        <v>2851.937188775999</v>
       </c>
       <c r="G43" s="5">
-        <v>3841.1420893559975</v>
+        <v>3841.142089355998</v>
       </c>
       <c r="H43" s="5">
-        <v>3828.1689103319977</v>
+        <v>3828.168910331998</v>
       </c>
       <c r="I43" s="5">
-        <v>3841.1420893559975</v>
+        <v>3841.142089355998</v>
       </c>
       <c r="J43" s="5">
-        <v>3828.1689103319977</v>
+        <v>3828.168910331998</v>
       </c>
       <c r="K43" s="5">
         <v>26620516.54885646</v>
       </c>
       <c r="L43" s="5">
-        <v>39579708.736719057</v>
+        <v>39579708.73671906</v>
       </c>
       <c r="M43" s="5">
-        <v>43973430.515185021</v>
+        <v>43973430.51518502</v>
       </c>
       <c r="N43" s="5">
-        <v>53241033.097712919</v>
+        <v>53241033.09771292</v>
       </c>
       <c r="O43" s="5">
-        <v>37268723.168399028</v>
+        <v>37268723.16839903</v>
       </c>
       <c r="P43" s="5">
-        <v>55411592.231406674</v>
+        <v>55411592.23140667</v>
       </c>
       <c r="Q43" s="5">
-        <v>61562802.721259035</v>
+        <v>61562802.72125904</v>
       </c>
       <c r="R43" s="5">
-        <v>82032108.780263126</v>
+        <v>82032108.78026313</v>
       </c>
       <c r="S43" s="5">
-        <v>88183319.270115495</v>
+        <v>88183319.27011549</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44" s="5">
         <v>141</v>
       </c>
@@ -18267,7 +18267,7 @@
         <v>15166.727377308</v>
       </c>
       <c r="D44" s="5">
-        <v>15158.078591292002</v>
+        <v>15158.078591292</v>
       </c>
       <c r="E44" s="5">
         <v>11327.747484456</v>
@@ -18279,43 +18279,43 @@
         <v>15166.727377308</v>
       </c>
       <c r="H44" s="5">
-        <v>15158.078591292002</v>
+        <v>15158.078591292</v>
       </c>
       <c r="I44" s="5">
         <v>15166.727377308</v>
       </c>
       <c r="J44" s="5">
-        <v>15158.078591292002</v>
+        <v>15158.078591292</v>
       </c>
       <c r="K44" s="5">
         <v>120062239.1899239</v>
       </c>
       <c r="L44" s="5">
-        <v>211713971.45191562</v>
+        <v>211713971.4519156</v>
       </c>
       <c r="M44" s="5">
-        <v>232738675.13198194</v>
+        <v>232738675.1319819</v>
       </c>
       <c r="N44" s="5">
-        <v>240124478.37984779</v>
+        <v>240124478.3798478</v>
       </c>
       <c r="O44" s="5">
-        <v>168087134.86589342</v>
+        <v>168087134.8658934</v>
       </c>
       <c r="P44" s="5">
-        <v>296399560.03268194</v>
+        <v>296399560.0326819</v>
       </c>
       <c r="Q44" s="5">
-        <v>325834145.18477476</v>
+        <v>325834145.1847748</v>
       </c>
       <c r="R44" s="5">
-        <v>416461799.22260559</v>
+        <v>416461799.2226056</v>
       </c>
       <c r="S44" s="5">
-        <v>445896384.37469834</v>
+        <v>445896384.3746983</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45" s="5">
         <v>142</v>
       </c>
@@ -18323,10 +18323,10 @@
         <v>1029.205535904</v>
       </c>
       <c r="C45" s="5">
-        <v>1369.7514852840002</v>
+        <v>1369.751485284</v>
       </c>
       <c r="D45" s="5">
-        <v>1307.0477866680001</v>
+        <v>1307.047786668</v>
       </c>
       <c r="E45" s="5">
         <v>1029.205535904</v>
@@ -18335,102 +18335,102 @@
         <v>1029.205535904</v>
       </c>
       <c r="G45" s="5">
-        <v>1369.7514852840002</v>
+        <v>1369.751485284</v>
       </c>
       <c r="H45" s="5">
-        <v>1307.0477866680001</v>
+        <v>1307.047786668</v>
       </c>
       <c r="I45" s="5">
-        <v>1369.7514852840002</v>
+        <v>1369.751485284</v>
       </c>
       <c r="J45" s="5">
-        <v>1307.0477866680001</v>
+        <v>1307.047786668</v>
       </c>
       <c r="K45" s="5">
-        <v>3973118.5285982336</v>
+        <v>3973118.528598234</v>
       </c>
       <c r="L45" s="5">
-        <v>5582291.6959982337</v>
+        <v>5582291.695998234</v>
       </c>
       <c r="M45" s="5">
-        <v>10234479.238098234</v>
+        <v>10234479.23809823</v>
       </c>
       <c r="N45" s="5">
-        <v>7946237.0571964672</v>
+        <v>7946237.057196467</v>
       </c>
       <c r="O45" s="5">
-        <v>5562365.9400375271</v>
+        <v>5562365.940037527</v>
       </c>
       <c r="P45" s="5">
-        <v>7815208.3743975265</v>
+        <v>7815208.374397526</v>
       </c>
       <c r="Q45" s="5">
-        <v>14328270.933337525</v>
+        <v>14328270.93333752</v>
       </c>
       <c r="R45" s="5">
         <v>11788326.90299576</v>
       </c>
       <c r="S45" s="5">
-        <v>18301389.461935759</v>
+        <v>18301389.46193576</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46">
       <c r="A46" s="5">
         <v>143</v>
       </c>
       <c r="B46" s="5">
-        <v>1658.4047185680001</v>
+        <v>1658.404718568</v>
       </c>
       <c r="C46" s="5">
-        <v>2298.4148837519997</v>
+        <v>2298.414883752</v>
       </c>
       <c r="D46" s="5">
-        <v>2364.3618771240003</v>
+        <v>2364.361877124</v>
       </c>
       <c r="E46" s="5">
-        <v>1658.4047185680001</v>
+        <v>1658.404718568</v>
       </c>
       <c r="F46" s="5">
-        <v>1658.4047185680001</v>
+        <v>1658.404718568</v>
       </c>
       <c r="G46" s="5">
-        <v>2298.4148837519997</v>
+        <v>2298.414883752</v>
       </c>
       <c r="H46" s="5">
-        <v>2364.3618771240003</v>
+        <v>2364.361877124</v>
       </c>
       <c r="I46" s="5">
-        <v>2298.4148837519997</v>
+        <v>2298.414883752</v>
       </c>
       <c r="J46" s="5">
-        <v>2364.3618771240003</v>
+        <v>2364.361877124</v>
       </c>
       <c r="K46" s="5">
-        <v>8554941.9910844937</v>
+        <v>8554941.991084494</v>
       </c>
       <c r="L46" s="5">
-        <v>13416067.089589493</v>
+        <v>13416067.08958949</v>
       </c>
       <c r="M46" s="5">
-        <v>16931059.403666314</v>
+        <v>16931059.40366631</v>
       </c>
       <c r="N46" s="5">
-        <v>17109883.982168987</v>
+        <v>17109883.98216899</v>
       </c>
       <c r="O46" s="5">
-        <v>11976918.787518291</v>
+        <v>11976918.78751829</v>
       </c>
       <c r="P46" s="5">
-        <v>18782493.925425291</v>
+        <v>18782493.92542529</v>
       </c>
       <c r="Q46" s="5">
-        <v>23703483.165132836</v>
+        <v>23703483.16513284</v>
       </c>
       <c r="R46" s="5">
-        <v>27337435.916509785</v>
+        <v>27337435.91650978</v>
       </c>
       <c r="S46" s="5">
-        <v>32258425.156217333</v>
+        <v>32258425.15621733</v>
       </c>
     </row>
   </sheetData>
@@ -18439,7 +18439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18448,7 +18448,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -18504,42 +18504,42 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>73094.133915971979</v>
+        <v>73094.13391597194</v>
       </c>
       <c r="C2" s="5">
-        <v>83893.2243552</v>
+        <v>83893.22435519991</v>
       </c>
       <c r="D2" s="5">
-        <v>76206.615783479996</v>
+        <v>76206.61578347992</v>
       </c>
       <c r="E2" s="5">
-        <v>73094.133915971979</v>
+        <v>73094.13391597194</v>
       </c>
       <c r="F2" s="5">
-        <v>73094.133915971979</v>
+        <v>73094.13391597194</v>
       </c>
       <c r="G2" s="5">
-        <v>83893.2243552</v>
+        <v>83893.22435519991</v>
       </c>
       <c r="H2" s="5">
-        <v>76206.615783479996</v>
+        <v>76206.61578347992</v>
       </c>
       <c r="I2" s="5">
-        <v>83893.2243552</v>
+        <v>83893.22435519991</v>
       </c>
       <c r="J2" s="5">
-        <v>76206.615783479996</v>
+        <v>76206.61578347992</v>
       </c>
       <c r="K2" s="5">
-        <v>10799.090439228001</v>
+        <v>10799.090439228</v>
       </c>
       <c r="L2" s="5">
-        <v>3112.4818675079996</v>
+        <v>3112.481867508</v>
       </c>
       <c r="M2" s="5">
         <v>0</v>
@@ -18548,54 +18548,54 @@
         <v>0</v>
       </c>
       <c r="O2" s="5">
-        <v>10799.090439228001</v>
+        <v>10799.090439228</v>
       </c>
       <c r="P2" s="5">
-        <v>3112.4818675079996</v>
+        <v>3112.481867508</v>
       </c>
       <c r="Q2" s="5">
-        <v>10799.090439228001</v>
+        <v>10799.090439228</v>
       </c>
       <c r="R2" s="5">
-        <v>3112.4818675079996</v>
+        <v>3112.481867508</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>53495.98480371599</v>
+        <v>53495.984803716</v>
       </c>
       <c r="C3" s="5">
-        <v>70390.307187719969</v>
+        <v>70390.30718771998</v>
       </c>
       <c r="D3" s="5">
-        <v>58649.580171000009</v>
+        <v>58649.58017099999</v>
       </c>
       <c r="E3" s="5">
-        <v>53495.98480371599</v>
+        <v>53495.984803716</v>
       </c>
       <c r="F3" s="5">
-        <v>53495.98480371599</v>
+        <v>53495.984803716</v>
       </c>
       <c r="G3" s="5">
-        <v>70390.307187719969</v>
+        <v>70390.30718771998</v>
       </c>
       <c r="H3" s="5">
-        <v>58649.580171000009</v>
+        <v>58649.58017099999</v>
       </c>
       <c r="I3" s="5">
-        <v>70390.307187719969</v>
+        <v>70390.30718771998</v>
       </c>
       <c r="J3" s="5">
-        <v>58649.580171000009</v>
+        <v>58649.58017099999</v>
       </c>
       <c r="K3" s="5">
-        <v>16894.322384003994</v>
+        <v>16894.322384004</v>
       </c>
       <c r="L3" s="5">
-        <v>5153.5953672839996</v>
+        <v>5153.595367283998</v>
       </c>
       <c r="M3" s="5">
         <v>0</v>
@@ -18604,54 +18604,54 @@
         <v>0</v>
       </c>
       <c r="O3" s="5">
-        <v>16894.322384003994</v>
+        <v>16894.322384004</v>
       </c>
       <c r="P3" s="5">
-        <v>5153.5953672839996</v>
+        <v>5153.595367283998</v>
       </c>
       <c r="Q3" s="5">
-        <v>16894.322384003994</v>
+        <v>16894.322384004</v>
       </c>
       <c r="R3" s="5">
-        <v>5153.5953672839996</v>
+        <v>5153.595367283998</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>49537.00300489198</v>
+        <v>49537.00300489202</v>
       </c>
       <c r="C4" s="5">
-        <v>63837.770682347968</v>
+        <v>63837.77068234805</v>
       </c>
       <c r="D4" s="5">
-        <v>55210.606631387964</v>
+        <v>55210.60663138804</v>
       </c>
       <c r="E4" s="5">
-        <v>49537.00300489198</v>
+        <v>49537.00300489202</v>
       </c>
       <c r="F4" s="5">
-        <v>49537.00300489198</v>
+        <v>49537.00300489202</v>
       </c>
       <c r="G4" s="5">
-        <v>63837.770682347968</v>
+        <v>63837.77068234805</v>
       </c>
       <c r="H4" s="5">
-        <v>55210.606631387964</v>
+        <v>55210.60663138804</v>
       </c>
       <c r="I4" s="5">
-        <v>63837.770682347968</v>
+        <v>63837.77068234805</v>
       </c>
       <c r="J4" s="5">
-        <v>55210.606631387964</v>
+        <v>55210.60663138804</v>
       </c>
       <c r="K4" s="5">
-        <v>14300.767677456004</v>
+        <v>14300.76767745601</v>
       </c>
       <c r="L4" s="5">
-        <v>5673.6036264960003</v>
+        <v>5673.603626496</v>
       </c>
       <c r="M4" s="5">
         <v>0</v>
@@ -18660,54 +18660,54 @@
         <v>0</v>
       </c>
       <c r="O4" s="5">
-        <v>14300.767677456004</v>
+        <v>14300.76767745601</v>
       </c>
       <c r="P4" s="5">
-        <v>5673.6036264960003</v>
+        <v>5673.603626496</v>
       </c>
       <c r="Q4" s="5">
-        <v>14300.767677456004</v>
+        <v>14300.76767745601</v>
       </c>
       <c r="R4" s="5">
-        <v>5673.6036264960003</v>
+        <v>5673.603626496</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>32189.700453300014</v>
+        <v>32189.70045329999</v>
       </c>
       <c r="C5" s="5">
-        <v>45639.643806431995</v>
+        <v>45639.64380643199</v>
       </c>
       <c r="D5" s="5">
-        <v>42918.519506147997</v>
+        <v>42918.519506148</v>
       </c>
       <c r="E5" s="5">
-        <v>32189.700453300014</v>
+        <v>32189.70045329999</v>
       </c>
       <c r="F5" s="5">
-        <v>32189.700453300014</v>
+        <v>32189.70045329999</v>
       </c>
       <c r="G5" s="5">
-        <v>45639.643806431995</v>
+        <v>45639.64380643199</v>
       </c>
       <c r="H5" s="5">
-        <v>42918.519506147997</v>
+        <v>42918.519506148</v>
       </c>
       <c r="I5" s="5">
-        <v>45639.643806431995</v>
+        <v>45639.64380643199</v>
       </c>
       <c r="J5" s="5">
-        <v>42918.519506147997</v>
+        <v>42918.519506148</v>
       </c>
       <c r="K5" s="5">
-        <v>13449.943353131999</v>
+        <v>13449.943353132</v>
       </c>
       <c r="L5" s="5">
-        <v>10728.819052848001</v>
+        <v>10728.819052848</v>
       </c>
       <c r="M5" s="5">
         <v>0</v>
@@ -18716,54 +18716,54 @@
         <v>0</v>
       </c>
       <c r="O5" s="5">
-        <v>13449.943353131999</v>
+        <v>13449.943353132</v>
       </c>
       <c r="P5" s="5">
-        <v>10728.819052848001</v>
+        <v>10728.819052848</v>
       </c>
       <c r="Q5" s="5">
-        <v>13449.943353131999</v>
+        <v>13449.943353132</v>
       </c>
       <c r="R5" s="5">
-        <v>10728.819052848001</v>
+        <v>10728.819052848</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>25537.702908743991</v>
+        <v>25537.702908744</v>
       </c>
       <c r="C6" s="5">
-        <v>37033.020622259995</v>
+        <v>37033.02062226</v>
       </c>
       <c r="D6" s="5">
-        <v>34182.164531735987</v>
+        <v>34182.16453173599</v>
       </c>
       <c r="E6" s="5">
-        <v>25537.702908743991</v>
+        <v>25537.702908744</v>
       </c>
       <c r="F6" s="5">
-        <v>25537.702908743991</v>
+        <v>25537.702908744</v>
       </c>
       <c r="G6" s="5">
-        <v>37033.020622259995</v>
+        <v>37033.02062226</v>
       </c>
       <c r="H6" s="5">
-        <v>34182.164531735987</v>
+        <v>34182.16453173599</v>
       </c>
       <c r="I6" s="5">
-        <v>37033.020622259995</v>
+        <v>37033.02062226</v>
       </c>
       <c r="J6" s="5">
-        <v>34182.164531735987</v>
+        <v>34182.16453173599</v>
       </c>
       <c r="K6" s="5">
-        <v>11495.317713515995</v>
+        <v>11495.31771351599</v>
       </c>
       <c r="L6" s="5">
-        <v>8644.4616229920011</v>
+        <v>8644.461622992003</v>
       </c>
       <c r="M6" s="5">
         <v>0</v>
@@ -18772,54 +18772,54 @@
         <v>0</v>
       </c>
       <c r="O6" s="5">
-        <v>11495.317713515995</v>
+        <v>11495.31771351599</v>
       </c>
       <c r="P6" s="5">
-        <v>8644.4616229920011</v>
+        <v>8644.461622992003</v>
       </c>
       <c r="Q6" s="5">
-        <v>11495.317713515995</v>
+        <v>11495.31771351599</v>
       </c>
       <c r="R6" s="5">
-        <v>8644.4616229920011</v>
+        <v>8644.461622992003</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>21637.100415528002</v>
+        <v>21637.10041552799</v>
       </c>
       <c r="C7" s="5">
-        <v>30132.370479744004</v>
+        <v>30132.37047974398</v>
       </c>
       <c r="D7" s="5">
-        <v>33518.370205008003</v>
+        <v>33518.37020500797</v>
       </c>
       <c r="E7" s="5">
-        <v>21637.100415528002</v>
+        <v>21637.10041552799</v>
       </c>
       <c r="F7" s="5">
-        <v>21637.100415528002</v>
+        <v>21637.10041552799</v>
       </c>
       <c r="G7" s="5">
-        <v>30132.370479744004</v>
+        <v>30132.37047974398</v>
       </c>
       <c r="H7" s="5">
-        <v>33518.370205008003</v>
+        <v>33518.37020500797</v>
       </c>
       <c r="I7" s="5">
-        <v>30132.370479744004</v>
+        <v>30132.37047974398</v>
       </c>
       <c r="J7" s="5">
-        <v>33518.370205008003</v>
+        <v>33518.37020500797</v>
       </c>
       <c r="K7" s="5">
-        <v>8495.2700642160016</v>
+        <v>8495.270064216002</v>
       </c>
       <c r="L7" s="5">
-        <v>11881.269789480002</v>
+        <v>11881.26978948001</v>
       </c>
       <c r="M7" s="5">
         <v>0</v>
@@ -18828,54 +18828,54 @@
         <v>0</v>
       </c>
       <c r="O7" s="5">
-        <v>8495.2700642160016</v>
+        <v>8495.270064216002</v>
       </c>
       <c r="P7" s="5">
-        <v>11881.269789480002</v>
+        <v>11881.26978948001</v>
       </c>
       <c r="Q7" s="5">
-        <v>8495.2700642160016</v>
+        <v>8495.270064216002</v>
       </c>
       <c r="R7" s="5">
-        <v>11881.269789480002</v>
+        <v>11881.26978948001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>16759.185102504001</v>
+        <v>16759.18510250399</v>
       </c>
       <c r="C8" s="5">
-        <v>29113.975926360006</v>
+        <v>29113.97592636</v>
       </c>
       <c r="D8" s="5">
-        <v>28444.776108372003</v>
+        <v>28444.77610837199</v>
       </c>
       <c r="E8" s="5">
-        <v>16759.185102504001</v>
+        <v>16759.18510250399</v>
       </c>
       <c r="F8" s="5">
-        <v>16759.185102504001</v>
+        <v>16759.18510250399</v>
       </c>
       <c r="G8" s="5">
-        <v>29113.975926360006</v>
+        <v>29113.97592636</v>
       </c>
       <c r="H8" s="5">
-        <v>28444.776108372003</v>
+        <v>28444.77610837199</v>
       </c>
       <c r="I8" s="5">
-        <v>29113.975926360006</v>
+        <v>29113.97592636</v>
       </c>
       <c r="J8" s="5">
-        <v>28444.776108372003</v>
+        <v>28444.77610837199</v>
       </c>
       <c r="K8" s="5">
-        <v>12354.790823855998</v>
+        <v>12354.790823856</v>
       </c>
       <c r="L8" s="5">
-        <v>11685.591005868002</v>
+        <v>11685.591005868</v>
       </c>
       <c r="M8" s="5">
         <v>0</v>
@@ -18884,54 +18884,54 @@
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <v>12354.790823855998</v>
+        <v>12354.790823856</v>
       </c>
       <c r="P8" s="5">
-        <v>11685.591005868002</v>
+        <v>11685.591005868</v>
       </c>
       <c r="Q8" s="5">
-        <v>12354.790823855998</v>
+        <v>12354.790823856</v>
       </c>
       <c r="R8" s="5">
-        <v>11685.591005868002</v>
+        <v>11685.591005868</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>11826.133778628002</v>
+        <v>11826.133778628</v>
       </c>
       <c r="C9" s="5">
-        <v>16088.904186264001</v>
+        <v>16088.904186264</v>
       </c>
       <c r="D9" s="5">
-        <v>27801.522648431997</v>
+        <v>27801.52264843199</v>
       </c>
       <c r="E9" s="5">
-        <v>11826.133778628002</v>
+        <v>11826.133778628</v>
       </c>
       <c r="F9" s="5">
-        <v>11826.133778628002</v>
+        <v>11826.133778628</v>
       </c>
       <c r="G9" s="5">
-        <v>16088.904186264001</v>
+        <v>16088.904186264</v>
       </c>
       <c r="H9" s="5">
-        <v>27801.522648431997</v>
+        <v>27801.52264843199</v>
       </c>
       <c r="I9" s="5">
-        <v>16088.904186264001</v>
+        <v>16088.904186264</v>
       </c>
       <c r="J9" s="5">
-        <v>27801.522648431997</v>
+        <v>27801.52264843199</v>
       </c>
       <c r="K9" s="5">
-        <v>4262.7704076359996</v>
+        <v>4262.770407635999</v>
       </c>
       <c r="L9" s="5">
-        <v>15975.388869804003</v>
+        <v>15975.388869804</v>
       </c>
       <c r="M9" s="5">
         <v>0</v>
@@ -18940,19 +18940,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="5">
-        <v>4262.7704076359996</v>
+        <v>4262.770407635999</v>
       </c>
       <c r="P9" s="5">
-        <v>15975.388869804003</v>
+        <v>15975.388869804</v>
       </c>
       <c r="Q9" s="5">
-        <v>4262.7704076359996</v>
+        <v>4262.770407635999</v>
       </c>
       <c r="R9" s="5">
-        <v>15975.388869804003</v>
+        <v>15975.388869804</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -18960,10 +18960,10 @@
         <v>10542.870153504</v>
       </c>
       <c r="C10" s="5">
-        <v>14283.470105424001</v>
+        <v>14283.470105424</v>
       </c>
       <c r="D10" s="5">
-        <v>22869.552422807988</v>
+        <v>22869.55242280799</v>
       </c>
       <c r="E10" s="5">
         <v>10542.870153504</v>
@@ -18972,22 +18972,22 @@
         <v>10542.870153504</v>
       </c>
       <c r="G10" s="5">
-        <v>14283.470105424001</v>
+        <v>14283.470105424</v>
       </c>
       <c r="H10" s="5">
-        <v>22869.552422807988</v>
+        <v>22869.55242280799</v>
       </c>
       <c r="I10" s="5">
-        <v>14283.470105424001</v>
+        <v>14283.470105424</v>
       </c>
       <c r="J10" s="5">
-        <v>22869.552422807988</v>
+        <v>22869.55242280799</v>
       </c>
       <c r="K10" s="5">
-        <v>3740.5999519199995</v>
+        <v>3740.59995192</v>
       </c>
       <c r="L10" s="5">
-        <v>12326.682269304001</v>
+        <v>12326.682269304</v>
       </c>
       <c r="M10" s="5">
         <v>0</v>
@@ -18996,19 +18996,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="5">
-        <v>3740.5999519199995</v>
+        <v>3740.59995192</v>
       </c>
       <c r="P10" s="5">
-        <v>12326.682269304001</v>
+        <v>12326.682269304</v>
       </c>
       <c r="Q10" s="5">
-        <v>3740.5999519199995</v>
+        <v>3740.59995192</v>
       </c>
       <c r="R10" s="5">
-        <v>12326.682269304001</v>
+        <v>12326.682269304</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -19016,10 +19016,10 @@
         <v>2584.905920532</v>
       </c>
       <c r="C11" s="5">
-        <v>7286.6022184800004</v>
+        <v>7286.602218479999</v>
       </c>
       <c r="D11" s="5">
-        <v>17404.600758948</v>
+        <v>17404.60075894801</v>
       </c>
       <c r="E11" s="5">
         <v>2584.905920532</v>
@@ -19028,22 +19028,22 @@
         <v>2584.905920532</v>
       </c>
       <c r="G11" s="5">
-        <v>7286.6022184800004</v>
+        <v>7286.602218479999</v>
       </c>
       <c r="H11" s="5">
-        <v>17404.600758948</v>
+        <v>17404.60075894801</v>
       </c>
       <c r="I11" s="5">
-        <v>7286.6022184800004</v>
+        <v>7286.602218479999</v>
       </c>
       <c r="J11" s="5">
-        <v>17404.600758948</v>
+        <v>17404.60075894801</v>
       </c>
       <c r="K11" s="5">
-        <v>4701.6962979479995</v>
+        <v>4701.696297948</v>
       </c>
       <c r="L11" s="5">
-        <v>14819.694838415999</v>
+        <v>14819.694838416</v>
       </c>
       <c r="M11" s="5">
         <v>0</v>
@@ -19052,16 +19052,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="5">
-        <v>4701.6962979479995</v>
+        <v>4701.696297948</v>
       </c>
       <c r="P11" s="5">
-        <v>14819.694838415999</v>
+        <v>14819.694838416</v>
       </c>
       <c r="Q11" s="5">
-        <v>4701.6962979479995</v>
+        <v>4701.696297948</v>
       </c>
       <c r="R11" s="5">
-        <v>14819.694838415999</v>
+        <v>14819.694838416</v>
       </c>
     </row>
   </sheetData>
@@ -19070,7 +19070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19079,7 +19079,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -19099,7 +19099,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>0.25951669999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -19139,7 +19139,7 @@
         <v>0.25885419999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -19159,7 +19159,7 @@
         <v>0.25928580000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>0.25691829999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -19199,7 +19199,7 @@
         <v>0.25846560000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>0.2575482</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -19239,7 +19239,7 @@
         <v>0.2581504</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>0.25499070000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>132</v>
       </c>
